--- a/data/hotels_by_city/Dallas/Dallas_shard_61.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_61.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="729">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Misty C</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This hotel is not in a convenient location. It is very difficult to get to. There is no pool either indoor or out. There wasn't any close food locations. The room was clean and staff was polite. The rooms are very dark. The hotel seems to not be in a very good area. The hotel has a nice clean laundry smell when you walk in. There is no ice machine (not sure why), but the refrigerator in the room makes ice (especially for some reason why you are sleeping). We walked to the convince store next door to get a bag of ice. The room did have a kitchenett. I would not return to this hotel. It just didn't have what I am looking for in a hotel.  No breakfast either. Also the hotel is right next to the highway and you can defiantly hear it. There are many other hotels with better value for the price.More</t>
   </si>
   <si>
+    <t>Heresmy2cents63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r549379901-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I asked for Non-Smoking.  The 1st room they gave me smelled so strongly of cigarette smoke I went to front desk and asked for another Non-Smoking room.  The front desk seemed put out by my request but they gave me another room.  This Non-Smoking room smelled so bad I couldn't sleep, it was awful!  They had tried to cover the smell with air freshener but the smell had saturated everything. The combination of air freshener and stale cigarette smoke was so bad I couldn't sleep and I got a horrible headache.  The room was so small my bed was pushed up against the wall.  If you're a heavy smoker and you want to pay to stay in a shoebox size room then this is your hotel.  If not I definitely would not recommend Candlewood Suites Dallas Plano East Richardson to anyone!More</t>
   </si>
   <si>
+    <t>Jonathan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r526421943-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Nice hotel, The room was fine, the excercise room had a broken TV, One of two treadmills broken. Stationary bike electronics freak out after start and you can not set resistance level or anything else for that matter. The Snack room area was overpriced, $2.50 for a 12oz can is a bit much. The front desk staff was fantastic, so I didn't complain about the exercise room. I chose to let it slide. If the exercise room was up to snuff, it would have been a 5 star rating.More</t>
   </si>
   <si>
+    <t>Roushan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r495010950-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>One of the worst &amp; Horrible experience in this hotel. Billing department has messed the thing and messed my all cards. They staffs are very rude &amp; they don't know how to treat with customer. i would never recommend to anybody in my whole life to come to this hotel. They will ask for your card and deduct 1 day 2 times &amp; this happened multiple time with me.please be careful if you are giving a card entry to themMore</t>
   </si>
   <si>
+    <t>Laura A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r493624415-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Pros: This hotel had very large rooms with full kitchens (including stovetop and full size refrigerator.) The staff was friendly and courteous. The hotel was close to several restaurants by car. I would not recommend trying to walk as it is next to a turnpike.Cons: There was a used towel hanging on the back of the bathroom door. I had booked a king suite but was put in one with 2 queen beds. When I mentioned this I was offered a suite with one queen bed. Not sure how that would have fixed it. The location is visible and directions are clear but it is difficult to actually pull into as it is located on a very busy corner.All in all it was a good room for a good price but I am not sure if I would stay there again.More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r480373171-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>It's a little older but clean and nice.  The location was less than desirable with lots of Street noise.  The staff is great, especially Kori. She's very patient and accommodating.  I arrived early and had a conference call to get on at 3pm.   She worked with housekeeping to get me in a room to take my call at 3. She also made sure I know how to turn on the ise maker and cook top stove. The entire week as I came in and out of this hotel she was there greeting me.   The room was very clean, comfortable beds, and a full kitchen.More</t>
   </si>
   <si>
+    <t>Carlos C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r474374041-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>Clean and convenient to 75 frwy but needs updating. Close to North Dallas metroplex.   No breakfast or dinner and cleaned only once per week.  Towels have to be exchanged  at front desk.  No pool. Small gym.  More</t>
   </si>
   <si>
+    <t>lisle123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r470208731-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Unfortunately I will not be staying at Candlewood Suites anymore due to the issues that I experienced during my recent stay at Candlewood Suites Plano.The AC was very loud and it will constantly turn on and off during the night. Must of the time you can't find the front desk staff and they leave a sign on the desk asking you to press 0 for assistance but I could not find a phone to dial 0. Also, they have a sign behind the door asking you to help conserve energy by turning the lights off when you leave the room, but every time I first check in at this location I find the lights and the TV on in my room and the room suppose to be vacant and ready.More</t>
   </si>
   <si>
+    <t>Crystal P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r468120730-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -397,6 +424,9 @@
   </si>
   <si>
     <t>I haven't stayed at a Candlewood Suites before..but will make sure that I do in the future.I didn't have a reservation, but they did have a Queen room available. Had all the amenities of home. A kitchen, full sized fridge, microwave, and the plates, utensils, etc needed to cook a meal.What I was really, really impressed with was the Pantry items they had available in the lobby. Huge selection of Microwaveable Marie Callender dinners, milk, eggs, Spam.. candy, ice cream, so many things at an affordable price. It was a welcome relief for me that I didn't have to go out to eat.The cost was extremely fair for a very clean room with Wifi and all the amenities you would expect from a home away from home.Thank you Candlewood Suites for making my stay very enjoyable.More</t>
+  </si>
+  <si>
+    <t>chasbyrd0324</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r459710281-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -434,6 +464,9 @@
 I will definitely stay at Candlewood again and recommend to my friends...If you are looking for a good value I found it at Candlewood Suites in Plano. The key things that I look for in a good deal. Is the hotel clean and updated, good staff that are professional and friendly. I asked for a room away from the expressway and they gladly accommodated my request. The room was a handicap room which is larger and seemed like it had hardly ever been used. Everything was in perfect order. The suite came with a desk, micro, coffee brewer, refrigerator, nice LCD TV and DirecTV which I liked very much because it had all the channels I am use to watching. The bathroom was very clean and the towels were thick and substantial. The bed was a queen and the mattress was a bit softer than the firm that I have at home, but was comfortable. I was able to close the curtains to give me a total black out in the room.If I had one complaint it would be the shower. I realize everyone is being forced to use low flow rates to save water these days, but I really missed my stronger force shower at home, oh well I cannot fault Candlewood for that.The breakfast in the morning was adequate for me. Do not expect a full blown buffet.I did like the coffee very much@!I will definitely stay at Candlewood again and recommend to my friends for this location.More</t>
   </si>
   <si>
+    <t>lsommers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r456060521-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -459,6 +492,9 @@
   </si>
   <si>
     <t>I came to Dallas for a weekend trip in December to visit family. Room: Average size originally, but Kori, the General Manager, gave us an upgrade when we checked in. I had all the basics for a short stay: great hot water pressure, no smoking smell (I was on the 4th floor), firm mattress, working heater, and a kitchenette with supplies. Basically, what one would expect in a Candlewood.  She was extremely helpful in giving us various directions within the city, suggesting good restaurants and shopping (you'll have to drive). I would have appreciated a safe in the room. The room wasn't serviced, but I expected that since I read that they're serviced every 6 days and I was there for 2.I would stay again if coming to the area.More</t>
+  </si>
+  <si>
+    <t>droods</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r452514823-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -500,6 +536,9 @@
 It wasn't a bad stay, but I wasn't comfortable given the smoke, poor taps/faucets etc. It made my stay feel dated. I felt better at the hotels I stayed at in Houston and...Stayed here while in town for work, checked in after midnight so that went quite quick. Awoke with a letter under my door for checkout, and the room wasn't serviced during my four day stay - so I didn't have much interaction with staff.The fifth floor smelt of cigarette smoke, which was odd for a non-smoking floor. You couldn't really smell it in the room, but it wasn't very nice to walk throughThe room was decent, kitchenette, desk and functional bathroom. All the taps/faucets in my room were loose and leaked water when you touched them. As they were mixer taps, the water was permanently warm - no cold glass of water.The ironing board was pretty bad, and the cover had marks burnt all over it, same could be said for the iron. Not a great impression when you are going in to work. The bed was ok, tad firm. Pillows were quite annoying, very lumpy and large in the beginning, lumpy and flat soon after. The air conditioning helped with the humidity out, and made the room more comfortable.The cable was good, which was placed in a position where you could see it from everywhere in the room, even from the toilet.It wasn't a bad stay, but I wasn't comfortable given the smoke, poor taps/faucets etc. It made my stay feel dated. I felt better at the hotels I stayed at in Houston and San Antonio after this.Would recommend if you're looking for somewhere you can be self sufficient, as it has the basics. Try and get a room away from the smoke.More</t>
   </si>
   <si>
+    <t>ThisMomKnowsBest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r443260075-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -524,6 +563,9 @@
     <t>Nice large suite with kitchenette. Room was fresh and clean, and stocked with everything we could need. Very little noise from other rooms. Front desk was very helpful. Hotel was every bit as nice as the one next door that we paid twice as much for. More</t>
   </si>
   <si>
+    <t>BENJAMIN B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r439592459-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -551,6 +593,9 @@
     <t>I stayed for a work week when I was last in town.  It was fine.  I had a problem with the room my first night and the staff moved me to a different room.  They even found my laundry I forgot to pack up.  It's no frills, but it was clean and comfortable.More</t>
   </si>
   <si>
+    <t>mySharonah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r420348155-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -578,6 +623,9 @@
     <t>If you don't smoke you are out of luck. My non-smoking room stunk like cigarettes all the time thanks to floor above me. It made my clothes smell too. Power goes out at least once a day and they don't mention at check in you get room service only 1x a week and only 2 towels at a time.Front desk team is nice but they seem overwhelmed most of the time. Very disappointed in my stayMore</t>
   </si>
   <si>
+    <t>Trish P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r416337370-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -605,6 +653,9 @@
     <t>The staff was incredibly friendly and helpful but the stench of mildew hit us as soon as we walked into the room - Great room, but the a/c leaked all over the living room carpet so we were limited to the bedroom but we were only staying for one night and had just driven through three states so we were too exhausted to move. We have family in the area so we will definitely give this location another try.More</t>
   </si>
   <si>
+    <t>hillaricastaneda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r414057899-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -629,6 +680,9 @@
     <t>The location of this hotel is ideal for me, because our offices, are just around the corner.I have stayed at other Candlewood hotels, but this one seemed more like an upscale high rise.A clean quite room is important to me, and this one hit the spot. Will return often for work.More</t>
   </si>
   <si>
+    <t>Hillary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r414051412-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -644,6 +698,9 @@
     <t>This Candlewood location was just around the corner from our offices, so the location was ideal.I have stayed at other Candlewood hotels, but this one seemed newer and more upscale. My room was near the highway, but no issue with noise.There was not a breakfast, but good choices nearby. Will be back next month, and will stay here again.More</t>
   </si>
   <si>
+    <t>Ron C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r410687299-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -665,6 +722,9 @@
     <t>My family stayed at this hotel for one month, while in the area for on the job training.The management and employees at this facility are top-notch.Our suite had a large bedroom set-up, with a separate kitchen and living area. This was ideal since we have two small children.Free laundry set-up was also a plus.The hotel was consistently clean, and inviting.More</t>
   </si>
   <si>
+    <t>islaexpress</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r410599105-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -683,6 +743,9 @@
     <t>This property is in top location, the building is of recent construction, maybe 2 yrs old, so everything looks new. Staff is friendly and is well managed. Internet works well and its free. This is a good hotel for people that is working or needs longer stays. It is not noisy, even though i could see the Hwy from my room.More</t>
   </si>
   <si>
+    <t>doctall41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r407853035-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -707,6 +770,9 @@
     <t>Stayed at Candlewood in Plano on a Friday night, after a flight from Calif. check in was quick, room was clean and was a nice suite. We had a ADA suite with a living room, full kitchen, bedroom and large bathroom. Two televisions and a table to work or eat on. Would stay here again.More</t>
   </si>
   <si>
+    <t>02806</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r392766681-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -734,6 +800,9 @@
     <t>Good stay hotel. All amenities are good. They have gymnasium , a simple one but good. Free Laundry. Kitchen appliances are good.Staff helpful and friendly.Near by area is also good. Everything is within reach.Only thing was little annoying , that they clean and change linen, bed sheet once in a week.More</t>
   </si>
   <si>
+    <t>Travis T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r385912195-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -758,6 +827,9 @@
     <t>The room was adequate in size but the service was non existent.  I just checked in about 1 hour and half ago.  Internet not working, went to lobby to speak with front desk, out of office note with directions to house phone.  Went back to room, checked internet, still no connection, called front desk from house phone.  Immediately placed on hold.  5 minutes later, I hung up, still no internet.  I have tried connecting with my phone, ps4, and desktop computer.  I have turned on my hotspot now to write this review.  Maybe they can respond to this quicker.More</t>
   </si>
   <si>
+    <t>innovapdr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r370533254-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -785,6 +857,9 @@
     <t>Best staff ever..From the top to the bottom! I did not have one incident in 34 days which is impressive.  The staff are always were smiling, personable and always offering help. I travel about 6-8 months out of the year staying in hotels and I've never had a better experience staying somewhere as I have had here. I would highly recommend staying at this location.More</t>
   </si>
   <si>
+    <t>jks1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r368250181-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -809,6 +884,9 @@
     <t>Nice clean hotel, however the most impressive aspect was the front desk staff. At most hotels personnel will acknowledge guests if they approach the front desk, however the staff at this hotel actually waived to me or said hello with a smile whenever I came in the front door or got off of the elevator. It was they actually knew me. Made my day.More</t>
   </si>
   <si>
+    <t>Kimberlyrehfus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r363683022-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -827,6 +905,9 @@
     <t>We stay here everytime we come to Texas and we have 2 small dogs and they are always so accommodating. The manager remembers us and we get great rooms. The front desk staff was always so great. The part time night auditor it was a girl i apologize for not getting her name, she was awesome my step son he vomited all over the bathroom and i went down and got a mop and she was great and very friendly. Room was very clean and we will be back soon. I really appreciate the free washers and dryers that was also a added bonus. So thanks for all the great things that you guys offer. We will see you again really soon. Boomer and Gizmo said to say hiMore</t>
   </si>
   <si>
+    <t>illini8484 .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r358557029-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -854,6 +935,9 @@
     <t>This is one of the better Candlewood Suites I've stayed at. I travel a lot for work and stay at Candlewood frequently.What do you get at Candlewood? They are great for short to mid term business travel. Although, I did stay at one for 8 months. The rooms are either a studio or 1 bedroom with a kitchen, which includes full fridge, dishwasher, stove and all utensils. You can borrow other kitchen stuff from the front desk.This Candlewood was decently renovated. The front desk said they will be having a refresh in the near future. There was a good size lobby that had seats and TV and could be used for a meeting area (not all Candlewoods have this). The kitchens had a granite countertop and the cabinets were newer than some Candlewoods.Front desk staff was amazing. I had several last minute changes to my reservation, and they were amazing with each change. Michael was extremely helpful.Good exercise area and equipment. Also, the usual free laundry washer &amp; dryer. Sounded like some of the laundry stuff were in need of service. For the number of rooms, they only had 3 washers and 4 dryers, so they were usually in use.Highly recommend this for your short-mid term business stays.More</t>
   </si>
   <si>
+    <t>dsherley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r350538582-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -881,6 +965,9 @@
     <t>The staff was very friendly,  however,  the bathroom had garbage from the prior person on the floor.  The hot water was also not working well. My last morning the water was barely warm .  With so many options around,  I'll go somewhere else next time I am in town.  More</t>
   </si>
   <si>
+    <t>Annette T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r332698290-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -908,6 +995,9 @@
     <t>The public area of hotel appeared clean.  My room needed some work.  I went and bought some disinfectant to clean the bathroom.  The sink drain was plugged up and you could see the hair sticking out.  When I pulled it out it was a ball of gunk.  The counter in sink looked dirty and behind the faucet hadn't been cleaned in a very long time.  The table, night stand and kitchen counter had water glass marks so it was obvious they didn't clean them after last guest left.  This was unfortunate since the bed was comfortable.  They really need to clean around the edge of the room since you could clearly see where the vacuum couldn't reach.More</t>
   </si>
   <si>
+    <t>Clinton_ILCruiser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r329837194-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1022,9 @@
     <t>Okay hotel.  Common areas clean. Staff very nice and accommodating.  Price was excellent.  Wifi was free and speeds acceptable. Room was nice, clean.  Bed very comfortable.  Hotel has no breakfast or happy hour which is my only complaint.  There is a McDonald's and Waffle House close to hotel.More</t>
   </si>
   <si>
+    <t>Garrick M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r319619889-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1052,9 @@
     <t>Front desk staff was wonderful upon arrival...helped accommodate me when I arrived early and very friendly/personable.  Room itself was great...clean and neat and everything worked properly.  Even though the hotel is near a major highway I was not bothered by traffic noise at all.  Will plan on staying here again for my next trip.More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r317790911-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1079,9 @@
     <t>Easy to find location located near both medical and shopping area.  Great for an overnight pleasure or business trip.  Rooms were very clean and staff was pleasant to work with.  Be aware there is no free breakfast but breakfast items are available for a nominal fee to cook in your room. Also there is a McDonalds across the road if you need to get going quickly in the morning.  Will stay here again.More</t>
   </si>
   <si>
+    <t>darwil2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r310969025-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1109,9 @@
     <t>Stayed 5 nights at this Candlewood based on location near where my daughter was moving into new house.  Front desk staff (Sidne) was very welcoming to us after a very long &amp; tiring drive.  All staff, from front desk to housekeeping to maintenance, were very friendly and helpful throughout our stay.  Room/suite was very roomy, comfortable, and clean.  Manager was on duty during a couple of the days we were there and she was also friendly &amp; welcoming!  Laundry room was great.  Fitness room looked good although we did not use.  Overall, great Candlewood...I highly recommend!More</t>
   </si>
   <si>
+    <t>David R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r299469989-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1133,9 @@
     <t>Hotel is always fairly priced.  Clean, comfortable and  outstanding staff.   Always greeted when entering or leaving the property.   Safety and comfort is something you don't have to worry about.   This is truly a home a way from home.   Over  the last few years I have stayed at this property over 100 nights.More</t>
   </si>
   <si>
+    <t>Raymond D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r298979334-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1154,9 @@
     <t>In Plano working the completion of a project, and had a remarkable visit.The workers remember you by name, and greet you everytime you arrive, or on your way out. I am very picky when it comes to cleanliness, and the cleaning pay attention to all my details and requests.I had left a piece of jewelry in my room, at check-out, and the manager mailed it to me the following day, after I called and reported it . Honesty and integrity are important in business, and is often rare.    Will be returning,and referring my coworkers.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r298732047-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1172,9 @@
     <t>I needed a place to stay for my daughters soccer game and typically thought I would only use a Candlewood Suites for work because of it has larger rooms and seems great for that kind of thing. I went ahead and booked a room and was so happy I did. Karen at the front desk was so sweet and Kori the General Manager spent time to talk with my daughter and make her feel special. Well the room was large as usual, and what I loved was that it was very quite and both my daughter and I were able to stream at the same time without any issues. GREAT Internet - yeah!!!Having the free washing machines and dryers really helped because we had to stay in the same color uniform and this let me clean it so my daughter smelled like a girl if you know what I mean. We also borrowed a juicer (never thought of that) from the front desk and made fresh mix fruit juice in the morning - which was really cool.Anyway; we just loved staying and will come back for any type event we have near there next time.More</t>
   </si>
   <si>
+    <t>amarielew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r298360923-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1091,6 +1202,9 @@
     <t>This place is really set for long term stays.   I was disappointed there was not any coffee in the lobby because each suite is set up with a small kitchen.    Bed was comfy, but the room smell was nasty!!!   I should have changed rooms but was in so late and didn't want to change rooms, I put up with it for three nights ... yuckers!More</t>
   </si>
   <si>
+    <t>smoonshadow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r296753761-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1229,9 @@
     <t>No breakfast, no wi fi, older looking hotel, beds are so so. Rooms are a little dark and gloomy albeit spacious. It's an extended stay hotel, but in my opinion it is only good for a quick one night stay, otherwise don't even bother.The one cool thing they have if you're staying longer is a selection of complimentary DVDsMore</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r290125002-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1139,6 +1256,9 @@
     <t>My daughter and I have stayed at this Candlewood Suites for the past month, because of a fire in our home. Our insurance company recommended this hotel.The staff here has been very friendly, professional, and gracious, knowing our situation.The hotel is clean, and the suites, are very well laid out, and reminds you of home.They also allow pets, so our furry companion is joining us also. It is nice to not have to pay to for a kennell elsewhere.Since we live in the area, we now know where to send our friends and family, when they come to town.More</t>
   </si>
   <si>
+    <t>Karen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r289954815-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1280,9 @@
     <t>I stayed here when I moved to Texas- my work made the reservation. There is a liquor store right next door- and some very shady people were in the area. I had to extend my stay- I called the front desk- they said no problem. Two days later- they locked me out and said I did not extend my stay. Not once did they apologize for their mistake. Since then, I have told everyone I can who is looking to suggest a hotel- to stay away from here.More</t>
   </si>
   <si>
+    <t>dbaudrate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r287775979-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1307,9 @@
     <t>The staff is great.  They are very friendly and helpful.  They will go out of their way to make your stay a good one.I really like the suites. It seems to be a little more like home than just coming back to a bedroom after work.  Although I didn't use it, having the kitchen could be useful.  As mentioned in other reviews, the rooms are not fancy, just basic rooms, which is fine with me.The rooms were acceptably clean, for the main stuff,  just don't look too close.  I had a big bunch of cobwebs on the wall right above the mirror in the bathroom and popcorn left on the floor under the recliner that someone hadn't vacuumed under.  Maybe that's what attracted the 3 cockroaches I saw during the week.When I'm back in the area I'll probably look somewhere else to see how things compare elsewhere.More</t>
   </si>
   <si>
+    <t>Stephanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r270572139-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1337,9 @@
     <t>My wife and I recently had a reservation for Candlewood Suites Dallas/Plano/East Richardson through hotels.com.  We made this reservation as an late night/overnight stay in the Dallas area in our drive from Kansas City to Houston where we were getting married.  This hotel was picked because it was on our route and pet friendly.  After a long night of driving, we arrived at the Candlewood Suites shortly before midnight.  Imagine our surprise when we were told there was no room for us (this was after we had received an email from hotels.com stating "Your booking is guaranteed and it has been paid in full").  How is this even possible?  What a ridiculous situation to encounter two days before your wedding.  As if this all wasn't stressful enough, the hotel had NO rooms available.  Upon inquiry, the front desk clerk stated that she saw our reservation but unfortunately the hotels.com credit card had not been run (again, this is after we had received an email from hotels.com stating "your booking is guaranteed and it has been paid in full").  I am thoroughly disappointed in both Candlewood Suites Plano East and hotels.com for this process.  We had to spend an additional 30 minutes waiting for the front desk clerk to find us another room at a different pet friendly hotel.  We ended up having to drive 15 miles back north (this is OUT of our way) in order to get a room...My wife and I recently had a reservation for Candlewood Suites Dallas/Plano/East Richardson through hotels.com.  We made this reservation as an late night/overnight stay in the Dallas area in our drive from Kansas City to Houston where we were getting married.  This hotel was picked because it was on our route and pet friendly.  After a long night of driving, we arrived at the Candlewood Suites shortly before midnight.  Imagine our surprise when we were told there was no room for us (this was after we had received an email from hotels.com stating "Your booking is guaranteed and it has been paid in full").  How is this even possible?  What a ridiculous situation to encounter two days before your wedding.  As if this all wasn't stressful enough, the hotel had NO rooms available.  Upon inquiry, the front desk clerk stated that she saw our reservation but unfortunately the hotels.com credit card had not been run (again, this is after we had received an email from hotels.com stating "your booking is guaranteed and it has been paid in full").  I am thoroughly disappointed in both Candlewood Suites Plano East and hotels.com for this process.  We had to spend an additional 30 minutes waiting for the front desk clerk to find us another room at a different pet friendly hotel.  We ended up having to drive 15 miles back north (this is OUT of our way) in order to get a room at a pet friendly La Quinta.  That is not ok!  I would highly recommend selecting a different hotel!More</t>
   </si>
   <si>
+    <t>Hattlady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r263264135-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1364,9 @@
     <t>I chose this hotel based on other travelers' reviews, and I was not disappointed. Staff were super friendly and made us feel like friends from the beginning. We were new to Texas, and Candlewood felt like home. We still go back on occasion to say "hi" to the people at the front desk. My husband and I were a bit surprised at first that room service was only once a week (for extended stay), but we quickly learned to empty our own trash and get new towels when we needed them.More</t>
   </si>
   <si>
+    <t>Jeff_Fisher_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r258732654-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1397,9 @@
     <t>The check in process was easy.  The rooms were very clean and quiet.  The staff was very friendly.  Overall, an enjoyable 3 night stay.  They offer a free laundry room for people staying longer (they are an extended stay property).  The in room appliances were all clean.  Over all, a pleasant experience.More</t>
   </si>
   <si>
+    <t>Julimom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r258650176-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1424,9 @@
     <t>This was my first time staying at a Candlewood property, and I really liked it. The room was clean and comfortable. No frills, just basic comfort. The room was large, had a big closet, large refrigerator, full size dishwasher and microwave,  as well as an electric cooktop. Don't remember if it had an oven. It also had a few dishes, kitchen towels, silverware, glasses and other utensils. Wifi worked well, and the TV had plenty of channels to choose from. The only thing I didn't like was the fact that the bed was up against the wall. I had to crawl into it from the foot of the bed. Hubby wouldn't give me the outside. LolI would definitely go back, especially if I needed an extended stay hotel.More</t>
   </si>
   <si>
+    <t>tripaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r246202335-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1316,6 +1454,9 @@
     <t>It was fairly comfy. I'd say the best part of this place was that it was close to the highway and to other places that we wanted to go. They had a decent fitness center but it was fairly small. The thing that I wish I'd taken advantage of was they had a cool outdoor hangout. It wasn't a bad stay but I won't remember it as a place that I MUST go back to either.More</t>
   </si>
   <si>
+    <t>Colby H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r244749808-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1484,9 @@
     <t>After more than 24 hours of traveling we were tired and needing to get to bed. When we walked through the door the manager that was on duty that night, remembered our names and that we were coming from Thailand. He welcomed us back to the hotel and we were checked in in minutes. It had been a year since we had last been to this hotel but the manager remembered us and treated us like we were returning to our home. After check-in the room was clean and as always no issues to resolve and specific requests had been met. We stayed for one month and daily the service was great and at all times staff within the hotel was friendly and resolved any and all issues in a timely manner. We had a couple of minor maintenance issues which were taken care of right away. The next to last night of our stay there was a bad weather alert with alarms going off. The hotel staff got the guest together around the lift area and monitored the storm until it had past and everyone then returned to their rooms. This made everyone feel safe and again showed that the staff would go just that one step further to help their guest when needed. I stay in this hotel when I return to visit family and would not consider staying any where else. A great staff that supports their...After more than 24 hours of traveling we were tired and needing to get to bed. When we walked through the door the manager that was on duty that night, remembered our names and that we were coming from Thailand. He welcomed us back to the hotel and we were checked in in minutes. It had been a year since we had last been to this hotel but the manager remembered us and treated us like we were returning to our home. After check-in the room was clean and as always no issues to resolve and specific requests had been met. We stayed for one month and daily the service was great and at all times staff within the hotel was friendly and resolved any and all issues in a timely manner. We had a couple of minor maintenance issues which were taken care of right away. The next to last night of our stay there was a bad weather alert with alarms going off. The hotel staff got the guest together around the lift area and monitored the storm until it had past and everyone then returned to their rooms. This made everyone feel safe and again showed that the staff would go just that one step further to help their guest when needed. I stay in this hotel when I return to visit family and would not consider staying any where else. A great staff that supports their guest fully.More</t>
   </si>
   <si>
+    <t>Don R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r243893830-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1370,6 +1514,9 @@
     <t>We have never stayed at a extended stay hotel such as this, We usually stay at hotels with all the bells and whistles. But price and location was important this time and how surprised we were. The staff was wonderful and friendly,the room was large and comfortable and it was nice to have snacks and drinks you can keep in the fridge. It was very close to major highways and shopping. So we were very pleased and well keep extended stay hotels in mind the next time we go somewhereMore</t>
   </si>
   <si>
+    <t>Gill12013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r241438614-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1544,9 @@
     <t>Stayed here for 10days recently while visiting family nearby.  Great place to stay, very spacious room, comfortable bed, good kitchen area with essentials.  Very friendly and helpful staff.  Good gym and tea / coffee making facilities.  Good location with easy access to main roads.More</t>
   </si>
   <si>
+    <t>Elizabeth_August</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r233744339-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1421,6 +1571,9 @@
     <t>I was moving so I needed a place to stay for an extended period in Plano before moving to my place.  I had stay in three other hotels (wanting a place I will feel comfortable)  but didn't get it until I located this candlewood.  First place I stayed was Extended Stay at Dallas Plano pkway - ridiculous price and roaches all over. Second place was Candle wood on Preston/Legacy- was close to work but high in price. If you need a place to feel comfortable, Great Staff- Kori and others are great people, then this is the place for you.  It is newer (appliances, kitcheneth etc) than the other hotels I compare it with and wey cheaper.  I ended up paying $49.99/night and you end up not paying tax if you stay longer than 31 days.   Please visit this place and you would love it, I was happy that after moving from one hotel to another I stay here more than a month and was satisfy I did.More</t>
   </si>
   <si>
+    <t>IowaUSMC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r232256558-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1448,6 +1601,9 @@
     <t>This was a typical Candlewood Suites.  Check-in went smoothly.  I got a one bedroom King Suite.  There was plenty of room for us to spread out and relax.  The room was clean.  The check-in and check-out staff were very friendly and helpful.  I got a great rate with advance purchase.More</t>
   </si>
   <si>
+    <t>RosieATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r230021490-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1628,9 @@
     <t>Convenient location for my visit in Plano. Very clean &amp; quiet (despite being next to toll road). Friendly staff, spacious rooms &amp; good and clean appliances. I would strongly recommend it to friends and family.More</t>
   </si>
   <si>
+    <t>Jan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r226294775-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1655,9 @@
     <t>This is a great hotel if you don't need some of the "normal" amenities like a pool, daily maid service or breakfast bar.   Free WiFi is provided and worked well for me, although I was not doing a lot of streaming.Good location for access to Richardson, Plano, Garland, although getting in and out at peak traffic hours can be tricky.   The staff was extremely friendly and even greeted me by name every time I passed the desk and asked if there was anything I needed.   They do have a basic workout room and a free laundry and movies available to check out.   There is no daily maid service but you can get additional towels if needed.   The hotel and my room were extremely clean.   Some have commented about the noise level, but I found it to be more quiet than many I've experienced, including luxury hotels.I was in a standard king room which was very large with a recliner, work table with a desk chair and a dining chair and a small kitchenette....full size fridge, small stove, microwave, dishwasher, and stocked for 2 persons.All in all, this was a very comfortable hotel and I would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Fabrice_Olivier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r221546125-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1680,9 @@
   </si>
   <si>
     <t>At a price below 100$ a night it makes this hotel very attractive.Things I liked:Staff was always courteous and ready to help.Modern room well equipped and comfortable.Things I disliked:No food/breakfast facility.Room insulation level is deficient.Overall good rating. Be aware there is room cleanup service only once a week  The following events occurred but I understand it was out of the control of the hotel operator.On the first night I had loudly neighbors (up to 1AM). It was almost as if I was in the same room as them. Two days later my neighbors (a different one) had a little dog that was barking early in the morning. So I presume pets are authorized to stay in the rooms.The fire alarm went on twice on a given day. The first time in the AM it was a test and the second time at 7:30PM it was someone who burned something on the stove.More</t>
+  </si>
+  <si>
+    <t>Joey111</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r198019963-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -1551,6 +1716,9 @@
 Pluses, a gym, friendly staff (just unlucky that whatever I asked for they couldn't provide, apart from bedding for the sofa bed and early check in and check out), clean enough, plenty of supplies in kitchen, towels...This suites hotel in Plano is fairly clean. Not spotless, but relatively clean. For Plano extended stay hotels that sounds a rarity from their reviews. It was good for us, because they have a suite with 2 rooms, for privacy, and due to its location in East Plano. The price worked out around the same as 2 separate rooms in other extended stay hotels, which I am sure would not have been clean or as good.However, one should not have illusions. It is a budget place and quite basic. The kitchen is well-equipped, but they have the strangest small spoons, that are in between teaspoon and dessert spoon, presumably because they don't want to provide more than one spoon. Their wireless was very poor in our room, closest to Turnpike end, and they never had a cable available for a wired connection. One of the desk staff referred to "the one cable" -- if that is true, it is ridiculous for a hotel with so many rooms. If you stay for less than 6 days you don't get housekeeping, even though the maid is around doing other rooms. Also, as others have mentioned, you will need earplugs if the heat/ac is running.Pluses, a gym, friendly staff (just unlucky that whatever I asked for they couldn't provide, apart from bedding for the sofa bed and early check in and check out), clean enough, plenty of supplies in kitchen, towels and bedding at front desk. A lot of channels on TV, a DVD.It may well be the best option if you want an extended stay suite with two rooms in East Plano. But if wifi is a priority for you, bring your own cable!More</t>
   </si>
   <si>
+    <t>fyre926</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r197638496-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1575,6 +1743,9 @@
     <t>Easy to get to location &amp; all the candlewood amenities we come to enjoy. Great staff. Always great to finish a long days work &amp; come back to a clean comfortable facility. Plenty of local amenities as well, even a party store right next door.More</t>
   </si>
   <si>
+    <t>SouthernTravelerGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r196548319-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1764,9 @@
     <t>For all of the amenities that go along with your stay in this hotel, you cannot beat the price.  Amenities included in the price:  full-sized refrigerator, dishwasher and microwave; kitchen sink, stove top w/two burners; pots, pans, dishes, utensils (pretty much everything you need to cook dinner, however, there is no oven); swivel flat screen TV you can see anywhere, except the bathroom; WIFI with desk and chair in your room; nice-sized bathroom with shower wand, tub and hair dryer; washer and dryer at no charge; DVD player and small selection of movies you can borrow; and plenty of parking. The room was a bit small, but cozy and comfortable.  The staff was execellent, very friendly and accomodating.  The only minor negatives were no oven, bed was against the wall and the ac/heater unit was definitely louder than most.  Still, a great value.  This place is great for extended business stays.More</t>
   </si>
   <si>
+    <t>Jason N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r195475972-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1794,9 @@
     <t>This is my only experience with a Candlewood to date. The staff works very hard to make your stay very enjoyable. Considering that it is just off the tollway it is a very quiet hotel.The rooms are clean and the bathrooms are nicer than most.Having a functioning kitchen is a great bonus for longer stays to keep the food costs down.At the price I have been paying it is a great value. I will use this hotel on return visits if they keep the course.They do need to improve the wi-fi access. There are parts of the hotel where it is strong and areas where it drops like a bad habit. The manager assured me that this concern is being addressed.More</t>
   </si>
   <si>
+    <t>Karen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r189739967-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1824,9 @@
     <t>We stayed at this hotel to visit family and to attend a Dallas Cowboys game.Check in was fast and easy, hotel was clean and welcoming. We loved having kitchen facilities in our room, so that we could have sandwiches and snacks in our room and save money by not having to eat out.The next morning we got to meet the hotel manager in the lobby. Nice lady.  We did not have much interaction with the staff, but the worker's that we did see were friendly.We have family in Plano, and will stay and recommend this hotel to friends.More</t>
   </si>
   <si>
+    <t>mbshu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r178429915-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1854,9 @@
     <t>I like Candlewood because their rooms are usually larger than at comparable hotels. Now here we got a two-room suite larger than even the usual Candlewood ones. Neat, clean and comfortable, plus friendly staff at the reception. Add some sandwiches to the selection at your little convenience store, and you will be excellent.More</t>
   </si>
   <si>
+    <t>by_digby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r174727626-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1884,9 @@
     <t>This Candlewood property didn't have a lot of the amenities I thought it was going to have (manager's evening reception, breakfast, a pool).  Apparently, some of the research I did online gave general information about Candlewood hotels instead of specifics about this property.The hotel itself was clean (not spotless) and did have that faint, lingering scent of second-hand smoke in some of the hallways and elevators.  This property is not smoke-free.  My room itself was odor-free, so I was grateful for that.The hotel itself was a bit noisier than others I've stayed in--you could hear cars coming and going in parking lot, other guests closing doors, phones ringing (muffled through the wall), etc.  I stayed in an "accessibility room", which was very spacious; however, the room layout puts the television (small 32" or so) very far away from the chair and bed.  I'm a reader, so that didn't matter much to me but for some who like to unwind while watching TV, that could be inconvenient.More</t>
   </si>
   <si>
+    <t>CJTraveler55711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r159713845-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1914,9 @@
     <t>I stayed at this hotel in January, 2013. After writing an unfavorable review, the hotel management finally made contact with me and apologized. They also made amends and I would consider staying again to give another chance. Since so many Tripadvisor readers use this mode to choose hotels I thought it only fair to report the reconciliatory efforts made by the hotel management.More</t>
   </si>
   <si>
+    <t>franklinmilford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r153457623-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1944,9 @@
     <t>I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water...I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water and running out into gym, a big mess. The parking is a bizarre set up. There are many spaces on the curb side of this shared area with a Comfort Suites. All of these spaces have notices that cars will be towed, as it is CS property. Confusing. There is one space next to a back door that had the hotel's van in it at all times, again reducing parking. If you get to this property after dark, be expected to park behind the building near a less than appealing bodega, not really well lit and unsavory characters walking around. There are 3 handicapped and 4 regular spaces near the front of the hotel, the rest are around the back, and most not near a door. The reserved spaces are across from entrance and well lit, but you get towed. Not a good set up. I requested several times not to get a paper, as I don't read the paper, and it was a waste. Every day I got a paper. The bathroom had nice fluffy towes and hand towels, but I couldn't find the face cloths. When questioned,  I was told they were on order. It is a major inconvenience to shower with a hand towel, as they are large and get very heavy when wet. Due to interactions with...More</t>
   </si>
   <si>
+    <t>CarlaJean55711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r153194510-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1971,9 @@
     <t>My rating is poor due to what would appear to be managerial issues. The room accommodations were nice, but upon arrival I noticed immediately that the bedspread appeared to have been sat on, the toilet seat was left up (as if a man had used it), there were no coffee supplies in the kitchen and the counter was not wiped. I arrived late at night and thought I could get coffee with the free breakfast in the morning. One problem, no free breakfast with room.  I said something to the girl at the desk upon leaving and she offered me some coffee from "The Cupboard," the food supply for guests to purchase items. She offered the coffee free and I thought "Yea, coffee."  Unfortunately the coffee machine had some strange mix of water/cream/maybe coffee which did not even smell like coffee. The front desk girl offered anything from the shelves and I took a granola bar.  She attempted to make a correction to the $100 charge for the room and ended up charging my card for $20 more dollars. She said the register wouldn't let her make the correction. I left, got breakfast at a local IHOP and attempted to contact the manager a day later. The manager did not return my phone call. Too much cost involved in staying at this hotel. I will continue to attempt to contact the manager, but time is money and if I have...My rating is poor due to what would appear to be managerial issues. The room accommodations were nice, but upon arrival I noticed immediately that the bedspread appeared to have been sat on, the toilet seat was left up (as if a man had used it), there were no coffee supplies in the kitchen and the counter was not wiped. I arrived late at night and thought I could get coffee with the free breakfast in the morning. One problem, no free breakfast with room.  I said something to the girl at the desk upon leaving and she offered me some coffee from "The Cupboard," the food supply for guests to purchase items. She offered the coffee free and I thought "Yea, coffee."  Unfortunately the coffee machine had some strange mix of water/cream/maybe coffee which did not even smell like coffee. The front desk girl offered anything from the shelves and I took a granola bar.  She attempted to make a correction to the $100 charge for the room and ended up charging my card for $20 more dollars. She said the register wouldn't let her make the correction. I left, got breakfast at a local IHOP and attempted to contact the manager a day later. The manager did not return my phone call. Too much cost involved in staying at this hotel. I will continue to attempt to contact the manager, but time is money and if I have to continue to invest into this experience it only makes it worse! Other comparable hotels in the area run $80-100 with coffee in the room and a free breakfast in the morning.More</t>
   </si>
   <si>
+    <t>DaddyYo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r144887583-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1806,6 +2001,9 @@
     <t>I recently stayed here on a quick trip to Plano. This was my first stay at the Candlewood Brand. The room was nice. Well laid out and spacious. Clean and comfortable. Location was a challenge as the traffic flow is not great, and it seems the traffic is always crazy, making very difficult to go anywhere but west or south. And even those can be a challenge.Not a lot of perks. No morning breakfast option, unless you fix it in your room. No daily housekeeping, so don't leave the pizza box in the room overnight.But for all of this you get a great price. If you can forego some of the basic you find in comparably equipped hotels, you'll be very pleased!More</t>
   </si>
   <si>
+    <t>electronicsguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r138114682-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1833,6 +2031,9 @@
     <t>I stay in many hotels each year and have stayed in this hotel once a few years ago. I believe it was a year old at that time. The property was nice and clean and the service was excellent. Now time has set in on what should still be a new property as far as age but has not been taken care of. The rooms were not what I would call clean. Details at this property have been over looked for too long. My stay was ok but during this day and age there are plenty of choices. I think that Hilton will get my business in Plano going forward.More</t>
   </si>
   <si>
+    <t>curtishardy09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r132766924-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1860,6 +2061,9 @@
     <t>We just spent two nights at the Candlewood in Plano.  It is an average Candlewood Suites.  Overall the stay was good.  The property is clean and in good repair.  The front desk staff was cordial and efficient.  Not out standing just average.  The exterior was clean as you would expect.  The dishes were somewhat clean but a little stained.  The bed sagged in the middle so you spent the night hugging the edges or laying on top of each other.  Candlewood has great towels and bath products, we like this.  Candlewood also has free laundry which means a lot to us.  This property has three washer and four dryers.  It also has a nice work out room.  We have grown to like average.  No surprises, just good.  The parking is a little tight but not a problem.More</t>
   </si>
   <si>
+    <t>marathonmomAlabama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r130322360-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1884,6 +2088,9 @@
     <t>For the rates at this hotel you would think they could offer you some sort of free breakfast. You can purchase breakfast in the cupboard for a small fee. Other cheaper hotel chains most often include a continental breakfast but you can't even get "fresh" fruit here. Other than that the rooms are adequate. No pool here if you have a lot of time on your hands. Work out room could stand to be revamped. The guys at the front have all been really helpful though. More</t>
   </si>
   <si>
+    <t>MWR4114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r123928834-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1911,6 +2118,9 @@
     <t>Be aware this are has had some crime issues! My rental was broken in to this was not the first incident in the last couple of months from what the staff said. The hotel does not have any cameras outside! They probably have close to two dozen on the inside.The hotel was ok but not great. The room I was given had something sticky on the linoleum in the kitchen are when I cheeked in. I made the desk aware of this the next am and was told they would have the floor re-cleaned, this did not happen until they came in to do my weekly service six days later.  I was at this hotel last May 2011 and the linoleum was shinny and looked like wood. This time even after they re-cleaned it was very dull, scratched up  and had what appeared to look like ground in dirt. The bed was comfortable and the linens were ok. The towels on the other had were warren out, they were frayed and rough. I had a room facing Jupiter drive on the end near George Bush Pkw, the room had a lot of outside noise all times of the day/night. It seams like the windows/out side walls do not have enough instillation. I never heard the rooms next to or above me.More</t>
   </si>
   <si>
+    <t>freenclearkc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r122767597-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1935,6 +2145,9 @@
     <t>This place is nice, clean, and a great value for the money. I loved that it had a full size kitchen (not that I really needed it either). The front desk staff was friendly. It was just a quick 1 night stay, so didn't get a chance to check out everything. Great location. That's really all I can say.More</t>
   </si>
   <si>
+    <t>TexasTravelerLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r120698287-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1962,6 +2175,9 @@
     <t>I stayed there since it was right across the tollway from my office and I got a great corporate rate.  It was a nice, clean, no-frills place to stay.  It's an extended stay type of place, so it had a full kitchen (not that I needed it).  The downside to that was that I was coming back after a business dinner one night and it was obvious someone had used their kitchen to cook dinner.  The insulation in these types of buildings is not like an apartment complex, so the smell permeated the halls and was quite disturbing when in a hotel environment.  You also don't get daily linen/bed making service.  Not a big deal to me - i was only there 2 nights and didn't need the bed made and had enough towels for 2 days.They don't have a restaurant or a free continental breakfast, but they do have a "pantry" that you can visit that has drinks (soda, water, juice) and snacks that you can either charge to your room or pay cash.Not a bad place if you need a value priced place to stay.More</t>
   </si>
   <si>
+    <t>4familytravelers66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r120578608-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1984,6 +2200,9 @@
   </si>
   <si>
     <t>Two Candlewood Suites in Plano...this is the one to choose. We accidentally went to the other one and were leery.  It was not nearly as nice and accommodating at the one in East Plano. Our room was quiet, comfortable and clean.  We were concerned to be on first floor due to noise, but there was none!  Great workout facility and nice little convenience store area to buy snacks and drinks.  Super selection of free dvds to watch for entertainment.  Nice, friendly staff as well. We will book this hotel again next time we are in the Plano area.More</t>
+  </si>
+  <si>
+    <t>Kate H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r120000140-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -2512,43 +2731,47 @@
       <c r="A2" t="n">
         <v>37040</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>17009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2566,56 +2789,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37040</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2633,56 +2860,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37040</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1719</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2698,56 +2929,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37040</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2765,56 +3000,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37040</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>15275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2826,56 +3065,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37040</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2891,56 +3134,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37040</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>14701</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2952,56 +3199,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37040</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3013,56 +3264,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37040</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>17805</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3080,56 +3335,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37040</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3147,56 +3406,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37040</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3214,56 +3477,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37040</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3279,56 +3546,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37040</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3340,56 +3611,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37040</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>15062</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3407,56 +3682,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37040</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3468,56 +3747,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37040</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>29578</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3529,47 +3812,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37040</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -3586,47 +3873,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37040</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>77210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3643,56 +3934,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37040</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>8015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3708,56 +4003,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X20" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37040</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3775,56 +4074,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37040</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3836,56 +4139,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37040</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3903,56 +4210,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37040</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>44143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3970,56 +4281,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37040</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4037,56 +4352,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37040</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4104,56 +4423,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37040</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4165,56 +4488,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37040</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4230,56 +4557,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37040</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>16908</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4291,56 +4622,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37040</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4358,56 +4693,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="Y30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37040</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>29749</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4425,56 +4764,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37040</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4492,56 +4835,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="X32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37040</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C33" t="s">
+        <v>338</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4559,56 +4906,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37040</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4626,56 +4977,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37040</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C35" t="s">
+        <v>357</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4691,56 +5046,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37040</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>98283</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4758,56 +5117,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37040</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>304</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4823,56 +5186,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X37" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37040</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>378</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="J38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4888,56 +5255,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="X38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37040</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>124123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>388</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4955,56 +5326,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="X39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37040</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C40" t="s">
+        <v>397</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="J40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5022,56 +5397,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="X40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37040</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>6548</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5087,56 +5466,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="X41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37040</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>414</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5148,56 +5531,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="X42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37040</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>13412</v>
+      </c>
+      <c r="C43" t="s">
+        <v>423</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="O43" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5213,56 +5600,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="X43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37040</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>433</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5278,56 +5669,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="X44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37040</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="O45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5345,56 +5740,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="X45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="Y45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37040</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>453</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="J46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="L46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5412,56 +5811,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="X46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37040</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="O47" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5479,56 +5882,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="X47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="Y47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37040</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>472</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="J48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="K48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5546,56 +5953,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="X48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="Y48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37040</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>4542</v>
+      </c>
+      <c r="C49" t="s">
+        <v>482</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="O49" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5613,56 +6024,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37040</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>492</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O50" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5674,56 +6089,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="X50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="Y50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37040</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>124131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="J51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="K51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="L51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5741,56 +6160,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="X51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="Y51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37040</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>511</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="J52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="K52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="L52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="O52" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5806,56 +6229,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="X52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="Y52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37040</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>521</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5871,56 +6298,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="X53" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="Y53" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37040</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>60008</v>
+      </c>
+      <c r="C54" t="s">
+        <v>530</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="K54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="L54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5938,56 +6369,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="X54" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="Y54" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37040</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>539</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="J55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="K55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="L55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6003,56 +6438,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="X55" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="Y55" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37040</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>548</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="J56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="K56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="L56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6074,56 +6513,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="X56" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="Y56" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37040</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>558</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="J57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="K57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="L57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6145,56 +6588,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="X57" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="Y57" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37040</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>124137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>567</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="J58" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="K58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="L58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6216,56 +6663,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="X58" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="Y58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37040</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>3496</v>
+      </c>
+      <c r="C59" t="s">
+        <v>574</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="J59" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="K59" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="L59" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6287,56 +6738,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="X59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="Y59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37040</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>6384</v>
+      </c>
+      <c r="C60" t="s">
+        <v>584</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="J60" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="K60" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="L60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6358,56 +6813,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="X60" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="Y60" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37040</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>594</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="J61" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="K61" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="L61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="O61" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6429,56 +6888,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="X61" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="Y61" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37040</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>604</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="J62" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="K62" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="L62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6500,56 +6963,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="X62" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="Y62" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37040</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>614</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="J63" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="K63" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="L63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6561,56 +7028,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="X63" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="Y63" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37040</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>70965</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="J64" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="K64" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="L64" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6632,56 +7103,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="X64" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="Y64" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37040</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>634</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="J65" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="K65" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="L65" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6703,56 +7178,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="X65" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="Y65" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37040</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>643</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="J66" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="K66" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="L66" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6774,56 +7253,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="X66" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y66" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37040</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>653</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="J67" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="K67" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="L67" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="O67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6845,56 +7328,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="X67" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="Y67" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37040</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>124144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>663</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="J68" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="K68" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="L68" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>602</v>
+        <v>669</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6916,47 +7403,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>603</v>
+        <v>670</v>
       </c>
       <c r="X68" t="s">
-        <v>604</v>
+        <v>671</v>
       </c>
       <c r="Y68" t="s">
-        <v>605</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37040</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>124145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>673</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="J69" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="K69" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="L69" t="s">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
@@ -6983,56 +7474,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="X69" t="s">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="Y69" t="s">
-        <v>613</v>
+        <v>681</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37040</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>682</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="J70" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="K70" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
       <c r="L70" t="s">
-        <v>618</v>
+        <v>687</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7054,56 +7549,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>620</v>
+        <v>689</v>
       </c>
       <c r="X70" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
       <c r="Y70" t="s">
-        <v>622</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37040</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>692</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="J71" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="K71" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="L71" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7125,56 +7624,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="X71" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="Y71" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37040</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>124148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>701</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="J72" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="K72" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="L72" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7196,56 +7699,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="X72" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
       <c r="Y72" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37040</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>124149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>711</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="J73" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
       <c r="K73" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="L73" t="s">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7267,47 +7774,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="X73" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="Y73" t="s">
-        <v>647</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37040</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>3373</v>
+      </c>
+      <c r="C74" t="s">
+        <v>720</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="J74" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="K74" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
       <c r="L74" t="s">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -7334,13 +7845,13 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="X74" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="Y74" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_61.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_61.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="661">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,33 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Misty C</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r600187518-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>1457662</t>
+  </si>
+  <si>
+    <t>600187518</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>very calm and nice. helpful staff</t>
+  </si>
+  <si>
+    <t>the location of the hotel was good, they did not provide breakfast but otherwise pretty much everything else was as expected, smooth and nice. check in check outs were quick, their shuttle was very good and overall experience was nice.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r555015418-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>1457662</t>
-  </si>
-  <si>
     <t>555015418</t>
   </si>
   <si>
@@ -192,9 +204,6 @@
     <t>This hotel is not in a convenient location. It is very difficult to get to. There is no pool either indoor or out. There wasn't any close food locations. The room was clean and staff was polite. The rooms are very dark. The hotel seems to not be in a very good area. The hotel has a nice clean laundry smell when you walk in. There is no ice machine (not sure why), but the refrigerator in the room makes ice (especially for some reason why you are sleeping). We walked to the convince store next door to get a bag of ice. The room did have a kitchenett. I would not return to this hotel. It just didn't have what I am looking for in a hotel.  No breakfast either. Also the hotel is right next to the highway and you can defiantly hear it. There are many other hotels with better value for the price.More</t>
   </si>
   <si>
-    <t>Heresmy2cents63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r549379901-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -225,9 +234,6 @@
     <t>I asked for Non-Smoking.  The 1st room they gave me smelled so strongly of cigarette smoke I went to front desk and asked for another Non-Smoking room.  The front desk seemed put out by my request but they gave me another room.  This Non-Smoking room smelled so bad I couldn't sleep, it was awful!  They had tried to cover the smell with air freshener but the smell had saturated everything. The combination of air freshener and stale cigarette smoke was so bad I couldn't sleep and I got a horrible headache.  The room was so small my bed was pushed up against the wall.  If you're a heavy smoker and you want to pay to stay in a shoebox size room then this is your hotel.  If not I definitely would not recommend Candlewood Suites Dallas Plano East Richardson to anyone!More</t>
   </si>
   <si>
-    <t>Jonathan R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r526421943-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -255,9 +261,6 @@
     <t>Nice hotel, The room was fine, the excercise room had a broken TV, One of two treadmills broken. Stationary bike electronics freak out after start and you can not set resistance level or anything else for that matter. The Snack room area was overpriced, $2.50 for a 12oz can is a bit much. The front desk staff was fantastic, so I didn't complain about the exercise room. I chose to let it slide. If the exercise room was up to snuff, it would have been a 5 star rating.More</t>
   </si>
   <si>
-    <t>Roushan K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r495010950-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -285,9 +288,6 @@
     <t>One of the worst &amp; Horrible experience in this hotel. Billing department has messed the thing and messed my all cards. They staffs are very rude &amp; they don't know how to treat with customer. i would never recommend to anybody in my whole life to come to this hotel. They will ask for your card and deduct 1 day 2 times &amp; this happened multiple time with me.please be careful if you are giving a card entry to themMore</t>
   </si>
   <si>
-    <t>Laura A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r493624415-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -312,9 +312,6 @@
     <t>Pros: This hotel had very large rooms with full kitchens (including stovetop and full size refrigerator.) The staff was friendly and courteous. The hotel was close to several restaurants by car. I would not recommend trying to walk as it is next to a turnpike.Cons: There was a used towel hanging on the back of the bathroom door. I had booked a king suite but was put in one with 2 queen beds. When I mentioned this I was offered a suite with one queen bed. Not sure how that would have fixed it. The location is visible and directions are clear but it is difficult to actually pull into as it is located on a very busy corner.All in all it was a good room for a good price but I am not sure if I would stay there again.More</t>
   </si>
   <si>
-    <t>Steve H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r480373171-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>It's a little older but clean and nice.  The location was less than desirable with lots of Street noise.  The staff is great, especially Kori. She's very patient and accommodating.  I arrived early and had a conference call to get on at 3pm.   She worked with housekeeping to get me in a room to take my call at 3. She also made sure I know how to turn on the ise maker and cook top stove. The entire week as I came in and out of this hotel she was there greeting me.   The room was very clean, comfortable beds, and a full kitchen.More</t>
   </si>
   <si>
-    <t>Carlos C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r474374041-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>Clean and convenient to 75 frwy but needs updating. Close to North Dallas metroplex.   No breakfast or dinner and cleaned only once per week.  Towels have to be exchanged  at front desk.  No pool. Small gym.  More</t>
   </si>
   <si>
-    <t>lisle123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r470208731-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,9 +390,6 @@
     <t>Unfortunately I will not be staying at Candlewood Suites anymore due to the issues that I experienced during my recent stay at Candlewood Suites Plano.The AC was very loud and it will constantly turn on and off during the night. Must of the time you can't find the front desk staff and they leave a sign on the desk asking you to press 0 for assistance but I could not find a phone to dial 0. Also, they have a sign behind the door asking you to help conserve energy by turning the lights off when you leave the room, but every time I first check in at this location I find the lights and the TV on in my room and the room suppose to be vacant and ready.More</t>
   </si>
   <si>
-    <t>Crystal P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r468120730-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
   </si>
   <si>
     <t>I haven't stayed at a Candlewood Suites before..but will make sure that I do in the future.I didn't have a reservation, but they did have a Queen room available. Had all the amenities of home. A kitchen, full sized fridge, microwave, and the plates, utensils, etc needed to cook a meal.What I was really, really impressed with was the Pantry items they had available in the lobby. Huge selection of Microwaveable Marie Callender dinners, milk, eggs, Spam.. candy, ice cream, so many things at an affordable price. It was a welcome relief for me that I didn't have to go out to eat.The cost was extremely fair for a very clean room with Wifi and all the amenities you would expect from a home away from home.Thank you Candlewood Suites for making my stay very enjoyable.More</t>
-  </si>
-  <si>
-    <t>chasbyrd0324</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r459710281-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -464,9 +449,6 @@
 I will definitely stay at Candlewood again and recommend to my friends...If you are looking for a good value I found it at Candlewood Suites in Plano. The key things that I look for in a good deal. Is the hotel clean and updated, good staff that are professional and friendly. I asked for a room away from the expressway and they gladly accommodated my request. The room was a handicap room which is larger and seemed like it had hardly ever been used. Everything was in perfect order. The suite came with a desk, micro, coffee brewer, refrigerator, nice LCD TV and DirecTV which I liked very much because it had all the channels I am use to watching. The bathroom was very clean and the towels were thick and substantial. The bed was a queen and the mattress was a bit softer than the firm that I have at home, but was comfortable. I was able to close the curtains to give me a total black out in the room.If I had one complaint it would be the shower. I realize everyone is being forced to use low flow rates to save water these days, but I really missed my stronger force shower at home, oh well I cannot fault Candlewood for that.The breakfast in the morning was adequate for me. Do not expect a full blown buffet.I did like the coffee very much@!I will definitely stay at Candlewood again and recommend to my friends for this location.More</t>
   </si>
   <si>
-    <t>lsommers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r456060521-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -492,9 +474,6 @@
   </si>
   <si>
     <t>I came to Dallas for a weekend trip in December to visit family. Room: Average size originally, but Kori, the General Manager, gave us an upgrade when we checked in. I had all the basics for a short stay: great hot water pressure, no smoking smell (I was on the 4th floor), firm mattress, working heater, and a kitchenette with supplies. Basically, what one would expect in a Candlewood.  She was extremely helpful in giving us various directions within the city, suggesting good restaurants and shopping (you'll have to drive). I would have appreciated a safe in the room. The room wasn't serviced, but I expected that since I read that they're serviced every 6 days and I was there for 2.I would stay again if coming to the area.More</t>
-  </si>
-  <si>
-    <t>droods</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r452514823-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -536,9 +515,6 @@
 It wasn't a bad stay, but I wasn't comfortable given the smoke, poor taps/faucets etc. It made my stay feel dated. I felt better at the hotels I stayed at in Houston and...Stayed here while in town for work, checked in after midnight so that went quite quick. Awoke with a letter under my door for checkout, and the room wasn't serviced during my four day stay - so I didn't have much interaction with staff.The fifth floor smelt of cigarette smoke, which was odd for a non-smoking floor. You couldn't really smell it in the room, but it wasn't very nice to walk throughThe room was decent, kitchenette, desk and functional bathroom. All the taps/faucets in my room were loose and leaked water when you touched them. As they were mixer taps, the water was permanently warm - no cold glass of water.The ironing board was pretty bad, and the cover had marks burnt all over it, same could be said for the iron. Not a great impression when you are going in to work. The bed was ok, tad firm. Pillows were quite annoying, very lumpy and large in the beginning, lumpy and flat soon after. The air conditioning helped with the humidity out, and made the room more comfortable.The cable was good, which was placed in a position where you could see it from everywhere in the room, even from the toilet.It wasn't a bad stay, but I wasn't comfortable given the smoke, poor taps/faucets etc. It made my stay feel dated. I felt better at the hotels I stayed at in Houston and San Antonio after this.Would recommend if you're looking for somewhere you can be self sufficient, as it has the basics. Try and get a room away from the smoke.More</t>
   </si>
   <si>
-    <t>ThisMomKnowsBest</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r443260075-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -563,9 +539,6 @@
     <t>Nice large suite with kitchenette. Room was fresh and clean, and stocked with everything we could need. Very little noise from other rooms. Front desk was very helpful. Hotel was every bit as nice as the one next door that we paid twice as much for. More</t>
   </si>
   <si>
-    <t>BENJAMIN B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r439592459-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -593,9 +566,6 @@
     <t>I stayed for a work week when I was last in town.  It was fine.  I had a problem with the room my first night and the staff moved me to a different room.  They even found my laundry I forgot to pack up.  It's no frills, but it was clean and comfortable.More</t>
   </si>
   <si>
-    <t>mySharonah</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r420348155-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -623,9 +593,6 @@
     <t>If you don't smoke you are out of luck. My non-smoking room stunk like cigarettes all the time thanks to floor above me. It made my clothes smell too. Power goes out at least once a day and they don't mention at check in you get room service only 1x a week and only 2 towels at a time.Front desk team is nice but they seem overwhelmed most of the time. Very disappointed in my stayMore</t>
   </si>
   <si>
-    <t>Trish P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r416337370-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -653,9 +620,6 @@
     <t>The staff was incredibly friendly and helpful but the stench of mildew hit us as soon as we walked into the room - Great room, but the a/c leaked all over the living room carpet so we were limited to the bedroom but we were only staying for one night and had just driven through three states so we were too exhausted to move. We have family in the area so we will definitely give this location another try.More</t>
   </si>
   <si>
-    <t>hillaricastaneda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r414057899-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -680,9 +644,6 @@
     <t>The location of this hotel is ideal for me, because our offices, are just around the corner.I have stayed at other Candlewood hotels, but this one seemed more like an upscale high rise.A clean quite room is important to me, and this one hit the spot. Will return often for work.More</t>
   </si>
   <si>
-    <t>Hillary C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r414051412-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -698,9 +659,6 @@
     <t>This Candlewood location was just around the corner from our offices, so the location was ideal.I have stayed at other Candlewood hotels, but this one seemed newer and more upscale. My room was near the highway, but no issue with noise.There was not a breakfast, but good choices nearby. Will be back next month, and will stay here again.More</t>
   </si>
   <si>
-    <t>Ron C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r410687299-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -722,9 +680,6 @@
     <t>My family stayed at this hotel for one month, while in the area for on the job training.The management and employees at this facility are top-notch.Our suite had a large bedroom set-up, with a separate kitchen and living area. This was ideal since we have two small children.Free laundry set-up was also a plus.The hotel was consistently clean, and inviting.More</t>
   </si>
   <si>
-    <t>islaexpress</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r410599105-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -743,9 +698,6 @@
     <t>This property is in top location, the building is of recent construction, maybe 2 yrs old, so everything looks new. Staff is friendly and is well managed. Internet works well and its free. This is a good hotel for people that is working or needs longer stays. It is not noisy, even though i could see the Hwy from my room.More</t>
   </si>
   <si>
-    <t>doctall41</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r407853035-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -770,9 +722,6 @@
     <t>Stayed at Candlewood in Plano on a Friday night, after a flight from Calif. check in was quick, room was clean and was a nice suite. We had a ADA suite with a living room, full kitchen, bedroom and large bathroom. Two televisions and a table to work or eat on. Would stay here again.More</t>
   </si>
   <si>
-    <t>02806</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r392766681-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -800,9 +749,6 @@
     <t>Good stay hotel. All amenities are good. They have gymnasium , a simple one but good. Free Laundry. Kitchen appliances are good.Staff helpful and friendly.Near by area is also good. Everything is within reach.Only thing was little annoying , that they clean and change linen, bed sheet once in a week.More</t>
   </si>
   <si>
-    <t>Travis T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r385912195-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -827,9 +773,6 @@
     <t>The room was adequate in size but the service was non existent.  I just checked in about 1 hour and half ago.  Internet not working, went to lobby to speak with front desk, out of office note with directions to house phone.  Went back to room, checked internet, still no connection, called front desk from house phone.  Immediately placed on hold.  5 minutes later, I hung up, still no internet.  I have tried connecting with my phone, ps4, and desktop computer.  I have turned on my hotspot now to write this review.  Maybe they can respond to this quicker.More</t>
   </si>
   <si>
-    <t>innovapdr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r370533254-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -857,9 +800,6 @@
     <t>Best staff ever..From the top to the bottom! I did not have one incident in 34 days which is impressive.  The staff are always were smiling, personable and always offering help. I travel about 6-8 months out of the year staying in hotels and I've never had a better experience staying somewhere as I have had here. I would highly recommend staying at this location.More</t>
   </si>
   <si>
-    <t>jks1949</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r368250181-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -884,9 +824,6 @@
     <t>Nice clean hotel, however the most impressive aspect was the front desk staff. At most hotels personnel will acknowledge guests if they approach the front desk, however the staff at this hotel actually waived to me or said hello with a smile whenever I came in the front door or got off of the elevator. It was they actually knew me. Made my day.More</t>
   </si>
   <si>
-    <t>Kimberlyrehfus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r363683022-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -905,9 +842,6 @@
     <t>We stay here everytime we come to Texas and we have 2 small dogs and they are always so accommodating. The manager remembers us and we get great rooms. The front desk staff was always so great. The part time night auditor it was a girl i apologize for not getting her name, she was awesome my step son he vomited all over the bathroom and i went down and got a mop and she was great and very friendly. Room was very clean and we will be back soon. I really appreciate the free washers and dryers that was also a added bonus. So thanks for all the great things that you guys offer. We will see you again really soon. Boomer and Gizmo said to say hiMore</t>
   </si>
   <si>
-    <t>illini8484 .</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r358557029-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -935,9 +869,6 @@
     <t>This is one of the better Candlewood Suites I've stayed at. I travel a lot for work and stay at Candlewood frequently.What do you get at Candlewood? They are great for short to mid term business travel. Although, I did stay at one for 8 months. The rooms are either a studio or 1 bedroom with a kitchen, which includes full fridge, dishwasher, stove and all utensils. You can borrow other kitchen stuff from the front desk.This Candlewood was decently renovated. The front desk said they will be having a refresh in the near future. There was a good size lobby that had seats and TV and could be used for a meeting area (not all Candlewoods have this). The kitchens had a granite countertop and the cabinets were newer than some Candlewoods.Front desk staff was amazing. I had several last minute changes to my reservation, and they were amazing with each change. Michael was extremely helpful.Good exercise area and equipment. Also, the usual free laundry washer &amp; dryer. Sounded like some of the laundry stuff were in need of service. For the number of rooms, they only had 3 washers and 4 dryers, so they were usually in use.Highly recommend this for your short-mid term business stays.More</t>
   </si>
   <si>
-    <t>dsherley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r350538582-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -965,9 +896,6 @@
     <t>The staff was very friendly,  however,  the bathroom had garbage from the prior person on the floor.  The hot water was also not working well. My last morning the water was barely warm .  With so many options around,  I'll go somewhere else next time I am in town.  More</t>
   </si>
   <si>
-    <t>Annette T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r332698290-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -995,9 +923,6 @@
     <t>The public area of hotel appeared clean.  My room needed some work.  I went and bought some disinfectant to clean the bathroom.  The sink drain was plugged up and you could see the hair sticking out.  When I pulled it out it was a ball of gunk.  The counter in sink looked dirty and behind the faucet hadn't been cleaned in a very long time.  The table, night stand and kitchen counter had water glass marks so it was obvious they didn't clean them after last guest left.  This was unfortunate since the bed was comfortable.  They really need to clean around the edge of the room since you could clearly see where the vacuum couldn't reach.More</t>
   </si>
   <si>
-    <t>Clinton_ILCruiser</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r329837194-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1022,9 +947,6 @@
     <t>Okay hotel.  Common areas clean. Staff very nice and accommodating.  Price was excellent.  Wifi was free and speeds acceptable. Room was nice, clean.  Bed very comfortable.  Hotel has no breakfast or happy hour which is my only complaint.  There is a McDonald's and Waffle House close to hotel.More</t>
   </si>
   <si>
-    <t>Garrick M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r319619889-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1052,9 +974,6 @@
     <t>Front desk staff was wonderful upon arrival...helped accommodate me when I arrived early and very friendly/personable.  Room itself was great...clean and neat and everything worked properly.  Even though the hotel is near a major highway I was not bothered by traffic noise at all.  Will plan on staying here again for my next trip.More</t>
   </si>
   <si>
-    <t>John R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r317790911-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1079,9 +998,6 @@
     <t>Easy to find location located near both medical and shopping area.  Great for an overnight pleasure or business trip.  Rooms were very clean and staff was pleasant to work with.  Be aware there is no free breakfast but breakfast items are available for a nominal fee to cook in your room. Also there is a McDonalds across the road if you need to get going quickly in the morning.  Will stay here again.More</t>
   </si>
   <si>
-    <t>darwil2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r310969025-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1109,9 +1025,6 @@
     <t>Stayed 5 nights at this Candlewood based on location near where my daughter was moving into new house.  Front desk staff (Sidne) was very welcoming to us after a very long &amp; tiring drive.  All staff, from front desk to housekeeping to maintenance, were very friendly and helpful throughout our stay.  Room/suite was very roomy, comfortable, and clean.  Manager was on duty during a couple of the days we were there and she was also friendly &amp; welcoming!  Laundry room was great.  Fitness room looked good although we did not use.  Overall, great Candlewood...I highly recommend!More</t>
   </si>
   <si>
-    <t>David R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r299469989-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1133,9 +1046,6 @@
     <t>Hotel is always fairly priced.  Clean, comfortable and  outstanding staff.   Always greeted when entering or leaving the property.   Safety and comfort is something you don't have to worry about.   This is truly a home a way from home.   Over  the last few years I have stayed at this property over 100 nights.More</t>
   </si>
   <si>
-    <t>Raymond D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r298979334-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1154,9 +1064,6 @@
     <t>In Plano working the completion of a project, and had a remarkable visit.The workers remember you by name, and greet you everytime you arrive, or on your way out. I am very picky when it comes to cleanliness, and the cleaning pay attention to all my details and requests.I had left a piece of jewelry in my room, at check-out, and the manager mailed it to me the following day, after I called and reported it . Honesty and integrity are important in business, and is often rare.    Will be returning,and referring my coworkers.More</t>
   </si>
   <si>
-    <t>David B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r298732047-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1172,9 +1079,6 @@
     <t>I needed a place to stay for my daughters soccer game and typically thought I would only use a Candlewood Suites for work because of it has larger rooms and seems great for that kind of thing. I went ahead and booked a room and was so happy I did. Karen at the front desk was so sweet and Kori the General Manager spent time to talk with my daughter and make her feel special. Well the room was large as usual, and what I loved was that it was very quite and both my daughter and I were able to stream at the same time without any issues. GREAT Internet - yeah!!!Having the free washing machines and dryers really helped because we had to stay in the same color uniform and this let me clean it so my daughter smelled like a girl if you know what I mean. We also borrowed a juicer (never thought of that) from the front desk and made fresh mix fruit juice in the morning - which was really cool.Anyway; we just loved staying and will come back for any type event we have near there next time.More</t>
   </si>
   <si>
-    <t>amarielew</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r298360923-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1202,9 +1106,6 @@
     <t>This place is really set for long term stays.   I was disappointed there was not any coffee in the lobby because each suite is set up with a small kitchen.    Bed was comfy, but the room smell was nasty!!!   I should have changed rooms but was in so late and didn't want to change rooms, I put up with it for three nights ... yuckers!More</t>
   </si>
   <si>
-    <t>smoonshadow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r296753761-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1229,9 +1130,6 @@
     <t>No breakfast, no wi fi, older looking hotel, beds are so so. Rooms are a little dark and gloomy albeit spacious. It's an extended stay hotel, but in my opinion it is only good for a quick one night stay, otherwise don't even bother.The one cool thing they have if you're staying longer is a selection of complimentary DVDsMore</t>
   </si>
   <si>
-    <t>John S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r290125002-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1256,9 +1154,6 @@
     <t>My daughter and I have stayed at this Candlewood Suites for the past month, because of a fire in our home. Our insurance company recommended this hotel.The staff here has been very friendly, professional, and gracious, knowing our situation.The hotel is clean, and the suites, are very well laid out, and reminds you of home.They also allow pets, so our furry companion is joining us also. It is nice to not have to pay to for a kennell elsewhere.Since we live in the area, we now know where to send our friends and family, when they come to town.More</t>
   </si>
   <si>
-    <t>Karen C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r289954815-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1280,9 +1175,6 @@
     <t>I stayed here when I moved to Texas- my work made the reservation. There is a liquor store right next door- and some very shady people were in the area. I had to extend my stay- I called the front desk- they said no problem. Two days later- they locked me out and said I did not extend my stay. Not once did they apologize for their mistake. Since then, I have told everyone I can who is looking to suggest a hotel- to stay away from here.More</t>
   </si>
   <si>
-    <t>dbaudrate</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r287775979-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1307,9 +1199,6 @@
     <t>The staff is great.  They are very friendly and helpful.  They will go out of their way to make your stay a good one.I really like the suites. It seems to be a little more like home than just coming back to a bedroom after work.  Although I didn't use it, having the kitchen could be useful.  As mentioned in other reviews, the rooms are not fancy, just basic rooms, which is fine with me.The rooms were acceptably clean, for the main stuff,  just don't look too close.  I had a big bunch of cobwebs on the wall right above the mirror in the bathroom and popcorn left on the floor under the recliner that someone hadn't vacuumed under.  Maybe that's what attracted the 3 cockroaches I saw during the week.When I'm back in the area I'll probably look somewhere else to see how things compare elsewhere.More</t>
   </si>
   <si>
-    <t>Stephanie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r270572139-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1337,9 +1226,6 @@
     <t>My wife and I recently had a reservation for Candlewood Suites Dallas/Plano/East Richardson through hotels.com.  We made this reservation as an late night/overnight stay in the Dallas area in our drive from Kansas City to Houston where we were getting married.  This hotel was picked because it was on our route and pet friendly.  After a long night of driving, we arrived at the Candlewood Suites shortly before midnight.  Imagine our surprise when we were told there was no room for us (this was after we had received an email from hotels.com stating "Your booking is guaranteed and it has been paid in full").  How is this even possible?  What a ridiculous situation to encounter two days before your wedding.  As if this all wasn't stressful enough, the hotel had NO rooms available.  Upon inquiry, the front desk clerk stated that she saw our reservation but unfortunately the hotels.com credit card had not been run (again, this is after we had received an email from hotels.com stating "your booking is guaranteed and it has been paid in full").  I am thoroughly disappointed in both Candlewood Suites Plano East and hotels.com for this process.  We had to spend an additional 30 minutes waiting for the front desk clerk to find us another room at a different pet friendly hotel.  We ended up having to drive 15 miles back north (this is OUT of our way) in order to get a room...My wife and I recently had a reservation for Candlewood Suites Dallas/Plano/East Richardson through hotels.com.  We made this reservation as an late night/overnight stay in the Dallas area in our drive from Kansas City to Houston where we were getting married.  This hotel was picked because it was on our route and pet friendly.  After a long night of driving, we arrived at the Candlewood Suites shortly before midnight.  Imagine our surprise when we were told there was no room for us (this was after we had received an email from hotels.com stating "Your booking is guaranteed and it has been paid in full").  How is this even possible?  What a ridiculous situation to encounter two days before your wedding.  As if this all wasn't stressful enough, the hotel had NO rooms available.  Upon inquiry, the front desk clerk stated that she saw our reservation but unfortunately the hotels.com credit card had not been run (again, this is after we had received an email from hotels.com stating "your booking is guaranteed and it has been paid in full").  I am thoroughly disappointed in both Candlewood Suites Plano East and hotels.com for this process.  We had to spend an additional 30 minutes waiting for the front desk clerk to find us another room at a different pet friendly hotel.  We ended up having to drive 15 miles back north (this is OUT of our way) in order to get a room at a pet friendly La Quinta.  That is not ok!  I would highly recommend selecting a different hotel!More</t>
   </si>
   <si>
-    <t>Hattlady</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r263264135-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1364,9 +1250,6 @@
     <t>I chose this hotel based on other travelers' reviews, and I was not disappointed. Staff were super friendly and made us feel like friends from the beginning. We were new to Texas, and Candlewood felt like home. We still go back on occasion to say "hi" to the people at the front desk. My husband and I were a bit surprised at first that room service was only once a week (for extended stay), but we quickly learned to empty our own trash and get new towels when we needed them.More</t>
   </si>
   <si>
-    <t>Jeff_Fisher_CA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r258732654-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1397,9 +1280,6 @@
     <t>The check in process was easy.  The rooms were very clean and quiet.  The staff was very friendly.  Overall, an enjoyable 3 night stay.  They offer a free laundry room for people staying longer (they are an extended stay property).  The in room appliances were all clean.  Over all, a pleasant experience.More</t>
   </si>
   <si>
-    <t>Julimom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r258650176-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1424,9 +1304,6 @@
     <t>This was my first time staying at a Candlewood property, and I really liked it. The room was clean and comfortable. No frills, just basic comfort. The room was large, had a big closet, large refrigerator, full size dishwasher and microwave,  as well as an electric cooktop. Don't remember if it had an oven. It also had a few dishes, kitchen towels, silverware, glasses and other utensils. Wifi worked well, and the TV had plenty of channels to choose from. The only thing I didn't like was the fact that the bed was up against the wall. I had to crawl into it from the foot of the bed. Hubby wouldn't give me the outside. LolI would definitely go back, especially if I needed an extended stay hotel.More</t>
   </si>
   <si>
-    <t>tripaj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r246202335-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1454,9 +1331,6 @@
     <t>It was fairly comfy. I'd say the best part of this place was that it was close to the highway and to other places that we wanted to go. They had a decent fitness center but it was fairly small. The thing that I wish I'd taken advantage of was they had a cool outdoor hangout. It wasn't a bad stay but I won't remember it as a place that I MUST go back to either.More</t>
   </si>
   <si>
-    <t>Colby H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r244749808-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1484,9 +1358,6 @@
     <t>After more than 24 hours of traveling we were tired and needing to get to bed. When we walked through the door the manager that was on duty that night, remembered our names and that we were coming from Thailand. He welcomed us back to the hotel and we were checked in in minutes. It had been a year since we had last been to this hotel but the manager remembered us and treated us like we were returning to our home. After check-in the room was clean and as always no issues to resolve and specific requests had been met. We stayed for one month and daily the service was great and at all times staff within the hotel was friendly and resolved any and all issues in a timely manner. We had a couple of minor maintenance issues which were taken care of right away. The next to last night of our stay there was a bad weather alert with alarms going off. The hotel staff got the guest together around the lift area and monitored the storm until it had past and everyone then returned to their rooms. This made everyone feel safe and again showed that the staff would go just that one step further to help their guest when needed. I stay in this hotel when I return to visit family and would not consider staying any where else. A great staff that supports their...After more than 24 hours of traveling we were tired and needing to get to bed. When we walked through the door the manager that was on duty that night, remembered our names and that we were coming from Thailand. He welcomed us back to the hotel and we were checked in in minutes. It had been a year since we had last been to this hotel but the manager remembered us and treated us like we were returning to our home. After check-in the room was clean and as always no issues to resolve and specific requests had been met. We stayed for one month and daily the service was great and at all times staff within the hotel was friendly and resolved any and all issues in a timely manner. We had a couple of minor maintenance issues which were taken care of right away. The next to last night of our stay there was a bad weather alert with alarms going off. The hotel staff got the guest together around the lift area and monitored the storm until it had past and everyone then returned to their rooms. This made everyone feel safe and again showed that the staff would go just that one step further to help their guest when needed. I stay in this hotel when I return to visit family and would not consider staying any where else. A great staff that supports their guest fully.More</t>
   </si>
   <si>
-    <t>Don R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r243893830-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1514,9 +1385,6 @@
     <t>We have never stayed at a extended stay hotel such as this, We usually stay at hotels with all the bells and whistles. But price and location was important this time and how surprised we were. The staff was wonderful and friendly,the room was large and comfortable and it was nice to have snacks and drinks you can keep in the fridge. It was very close to major highways and shopping. So we were very pleased and well keep extended stay hotels in mind the next time we go somewhereMore</t>
   </si>
   <si>
-    <t>Gill12013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r241438614-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1544,9 +1412,6 @@
     <t>Stayed here for 10days recently while visiting family nearby.  Great place to stay, very spacious room, comfortable bed, good kitchen area with essentials.  Very friendly and helpful staff.  Good gym and tea / coffee making facilities.  Good location with easy access to main roads.More</t>
   </si>
   <si>
-    <t>Elizabeth_August</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r233744339-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1571,9 +1436,6 @@
     <t>I was moving so I needed a place to stay for an extended period in Plano before moving to my place.  I had stay in three other hotels (wanting a place I will feel comfortable)  but didn't get it until I located this candlewood.  First place I stayed was Extended Stay at Dallas Plano pkway - ridiculous price and roaches all over. Second place was Candle wood on Preston/Legacy- was close to work but high in price. If you need a place to feel comfortable, Great Staff- Kori and others are great people, then this is the place for you.  It is newer (appliances, kitcheneth etc) than the other hotels I compare it with and wey cheaper.  I ended up paying $49.99/night and you end up not paying tax if you stay longer than 31 days.   Please visit this place and you would love it, I was happy that after moving from one hotel to another I stay here more than a month and was satisfy I did.More</t>
   </si>
   <si>
-    <t>IowaUSMC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r232256558-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1601,9 +1463,6 @@
     <t>This was a typical Candlewood Suites.  Check-in went smoothly.  I got a one bedroom King Suite.  There was plenty of room for us to spread out and relax.  The room was clean.  The check-in and check-out staff were very friendly and helpful.  I got a great rate with advance purchase.More</t>
   </si>
   <si>
-    <t>RosieATX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r230021490-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1628,9 +1487,6 @@
     <t>Convenient location for my visit in Plano. Very clean &amp; quiet (despite being next to toll road). Friendly staff, spacious rooms &amp; good and clean appliances. I would strongly recommend it to friends and family.More</t>
   </si>
   <si>
-    <t>Jan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r226294775-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1655,9 +1511,6 @@
     <t>This is a great hotel if you don't need some of the "normal" amenities like a pool, daily maid service or breakfast bar.   Free WiFi is provided and worked well for me, although I was not doing a lot of streaming.Good location for access to Richardson, Plano, Garland, although getting in and out at peak traffic hours can be tricky.   The staff was extremely friendly and even greeted me by name every time I passed the desk and asked if there was anything I needed.   They do have a basic workout room and a free laundry and movies available to check out.   There is no daily maid service but you can get additional towels if needed.   The hotel and my room were extremely clean.   Some have commented about the noise level, but I found it to be more quiet than many I've experienced, including luxury hotels.I was in a standard king room which was very large with a recliner, work table with a desk chair and a dining chair and a small kitchenette....full size fridge, small stove, microwave, dishwasher, and stocked for 2 persons.All in all, this was a very comfortable hotel and I would definitely stay there again.More</t>
   </si>
   <si>
-    <t>Fabrice_Olivier</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r221546125-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1680,9 +1533,6 @@
   </si>
   <si>
     <t>At a price below 100$ a night it makes this hotel very attractive.Things I liked:Staff was always courteous and ready to help.Modern room well equipped and comfortable.Things I disliked:No food/breakfast facility.Room insulation level is deficient.Overall good rating. Be aware there is room cleanup service only once a week  The following events occurred but I understand it was out of the control of the hotel operator.On the first night I had loudly neighbors (up to 1AM). It was almost as if I was in the same room as them. Two days later my neighbors (a different one) had a little dog that was barking early in the morning. So I presume pets are authorized to stay in the rooms.The fire alarm went on twice on a given day. The first time in the AM it was a test and the second time at 7:30PM it was someone who burned something on the stove.More</t>
-  </si>
-  <si>
-    <t>Joey111</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r198019963-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -1716,9 +1566,6 @@
 Pluses, a gym, friendly staff (just unlucky that whatever I asked for they couldn't provide, apart from bedding for the sofa bed and early check in and check out), clean enough, plenty of supplies in kitchen, towels...This suites hotel in Plano is fairly clean. Not spotless, but relatively clean. For Plano extended stay hotels that sounds a rarity from their reviews. It was good for us, because they have a suite with 2 rooms, for privacy, and due to its location in East Plano. The price worked out around the same as 2 separate rooms in other extended stay hotels, which I am sure would not have been clean or as good.However, one should not have illusions. It is a budget place and quite basic. The kitchen is well-equipped, but they have the strangest small spoons, that are in between teaspoon and dessert spoon, presumably because they don't want to provide more than one spoon. Their wireless was very poor in our room, closest to Turnpike end, and they never had a cable available for a wired connection. One of the desk staff referred to "the one cable" -- if that is true, it is ridiculous for a hotel with so many rooms. If you stay for less than 6 days you don't get housekeeping, even though the maid is around doing other rooms. Also, as others have mentioned, you will need earplugs if the heat/ac is running.Pluses, a gym, friendly staff (just unlucky that whatever I asked for they couldn't provide, apart from bedding for the sofa bed and early check in and check out), clean enough, plenty of supplies in kitchen, towels and bedding at front desk. A lot of channels on TV, a DVD.It may well be the best option if you want an extended stay suite with two rooms in East Plano. But if wifi is a priority for you, bring your own cable!More</t>
   </si>
   <si>
-    <t>fyre926</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r197638496-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1743,9 +1590,6 @@
     <t>Easy to get to location &amp; all the candlewood amenities we come to enjoy. Great staff. Always great to finish a long days work &amp; come back to a clean comfortable facility. Plenty of local amenities as well, even a party store right next door.More</t>
   </si>
   <si>
-    <t>SouthernTravelerGal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r196548319-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1764,9 +1608,6 @@
     <t>For all of the amenities that go along with your stay in this hotel, you cannot beat the price.  Amenities included in the price:  full-sized refrigerator, dishwasher and microwave; kitchen sink, stove top w/two burners; pots, pans, dishes, utensils (pretty much everything you need to cook dinner, however, there is no oven); swivel flat screen TV you can see anywhere, except the bathroom; WIFI with desk and chair in your room; nice-sized bathroom with shower wand, tub and hair dryer; washer and dryer at no charge; DVD player and small selection of movies you can borrow; and plenty of parking. The room was a bit small, but cozy and comfortable.  The staff was execellent, very friendly and accomodating.  The only minor negatives were no oven, bed was against the wall and the ac/heater unit was definitely louder than most.  Still, a great value.  This place is great for extended business stays.More</t>
   </si>
   <si>
-    <t>Jason N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r195475972-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1794,9 +1635,6 @@
     <t>This is my only experience with a Candlewood to date. The staff works very hard to make your stay very enjoyable. Considering that it is just off the tollway it is a very quiet hotel.The rooms are clean and the bathrooms are nicer than most.Having a functioning kitchen is a great bonus for longer stays to keep the food costs down.At the price I have been paying it is a great value. I will use this hotel on return visits if they keep the course.They do need to improve the wi-fi access. There are parts of the hotel where it is strong and areas where it drops like a bad habit. The manager assured me that this concern is being addressed.More</t>
   </si>
   <si>
-    <t>Karen T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r189739967-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1824,9 +1662,6 @@
     <t>We stayed at this hotel to visit family and to attend a Dallas Cowboys game.Check in was fast and easy, hotel was clean and welcoming. We loved having kitchen facilities in our room, so that we could have sandwiches and snacks in our room and save money by not having to eat out.The next morning we got to meet the hotel manager in the lobby. Nice lady.  We did not have much interaction with the staff, but the worker's that we did see were friendly.We have family in Plano, and will stay and recommend this hotel to friends.More</t>
   </si>
   <si>
-    <t>mbshu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r178429915-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1854,9 +1689,6 @@
     <t>I like Candlewood because their rooms are usually larger than at comparable hotels. Now here we got a two-room suite larger than even the usual Candlewood ones. Neat, clean and comfortable, plus friendly staff at the reception. Add some sandwiches to the selection at your little convenience store, and you will be excellent.More</t>
   </si>
   <si>
-    <t>by_digby</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r174727626-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1884,9 +1716,6 @@
     <t>This Candlewood property didn't have a lot of the amenities I thought it was going to have (manager's evening reception, breakfast, a pool).  Apparently, some of the research I did online gave general information about Candlewood hotels instead of specifics about this property.The hotel itself was clean (not spotless) and did have that faint, lingering scent of second-hand smoke in some of the hallways and elevators.  This property is not smoke-free.  My room itself was odor-free, so I was grateful for that.The hotel itself was a bit noisier than others I've stayed in--you could hear cars coming and going in parking lot, other guests closing doors, phones ringing (muffled through the wall), etc.  I stayed in an "accessibility room", which was very spacious; however, the room layout puts the television (small 32" or so) very far away from the chair and bed.  I'm a reader, so that didn't matter much to me but for some who like to unwind while watching TV, that could be inconvenient.More</t>
   </si>
   <si>
-    <t>CJTraveler55711</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r159713845-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1914,9 +1743,6 @@
     <t>I stayed at this hotel in January, 2013. After writing an unfavorable review, the hotel management finally made contact with me and apologized. They also made amends and I would consider staying again to give another chance. Since so many Tripadvisor readers use this mode to choose hotels I thought it only fair to report the reconciliatory efforts made by the hotel management.More</t>
   </si>
   <si>
-    <t>franklinmilford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r153457623-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -1929,7 +1755,7 @@
     <t>Serious Flaws, Great Room</t>
   </si>
   <si>
-    <t>I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water...I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water and running out into gym, a big mess. The parking is a bizarre set up. There are many spaces on the curb side of this shared area with a Comfort Suites. All of these spaces have notices that cars will be towed, as it is CS property. Confusing. There is one space next to a back door that had the hotel's van in it at all times, again reducing parking. If you get to this property after dark, be expected to park behind the building near a less than appealing bodega, not really well lit and unsavory characters walking around. There are 3 handicapped and 4 regular spaces near the front of the hotel, the rest are around the back, and most not near a door. The reserved spaces are across from entrance and well lit, but you get towed. Not a good set up. I requested several times not to get a paper, as I don't read the paper, and it was a waste. Every day I got a paper. The bathroom had nice fluffy towes and hand towels, but I couldn't find the face cloths. When questioned,  I was told they were on order. It is a major inconvenience to shower with a hand towel, as they are large and get very heavy when wet. Due to interactions with...MoreShow less</t>
+    <t>I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water...I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water and running out into gym, a big mess. The parking is a bizarre set up. There are many spaces on the curb side of this shared area with a Comfort Suites. All of these spaces have notices that cars will be towed, as it is CS property. Confusing. There is one space next to a back door that had the hotel's van in it at all times, again reducing parking. If you get to this property after dark, be expected to park behind the building near a less than appealing bodega, not really well lit and unsavory characters walking around. There are 3 handicapped and 4 regular spaces near the front of the hotel, the rest are around the back, and most not near a door. The reserved spaces are across from entrance and well lit, but you get towed. Not a good set up. I requested several times not to get a paper, as I don't read the paper, and it was a waste. Every day I got a paper. The bathroom had nice fluffy towes and hand towels, but I couldn't find the face cloths. When questioned,  I was told they were on order. It is a major inconvenience to shower with a hand towel, as they are large and get very heavy when wet. Due to interactions with staff being so positive, and the wondderful upgrade, I would like to rate this place higher, but untill the above refrenced issues are resolved, average is the best I can do, although this is one of the nicer hotels I have stayed at in Dallas.MoreShow less</t>
   </si>
   <si>
     <t>February 2013</t>
@@ -1941,10 +1767,7 @@
     <t>Responded March 15, 2013</t>
   </si>
   <si>
-    <t>I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water...I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water and running out into gym, a big mess. The parking is a bizarre set up. There are many spaces on the curb side of this shared area with a Comfort Suites. All of these spaces have notices that cars will be towed, as it is CS property. Confusing. There is one space next to a back door that had the hotel's van in it at all times, again reducing parking. If you get to this property after dark, be expected to park behind the building near a less than appealing bodega, not really well lit and unsavory characters walking around. There are 3 handicapped and 4 regular spaces near the front of the hotel, the rest are around the back, and most not near a door. The reserved spaces are across from entrance and well lit, but you get towed. Not a good set up. I requested several times not to get a paper, as I don't read the paper, and it was a waste. Every day I got a paper. The bathroom had nice fluffy towes and hand towels, but I couldn't find the face cloths. When questioned,  I was told they were on order. It is a major inconvenience to shower with a hand towel, as they are large and get very heavy when wet. Due to interactions with...More</t>
-  </si>
-  <si>
-    <t>CarlaJean55711</t>
+    <t>I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water...I was warmly greeted upon check in,and all contact with any staff member was very positive. After reading previous reviews, I knew this brand did not offer breakfast, but I knew I would be getting a full size kitchen, and for lenghthy stays I can cook my own meals. I requested a smoking room and the only available was a suite, which I was upgraded to! The room was nicely appointed, full size kitchen including garbage disposal and dishwasher, with sperate large bedroom, clostes and kitchen, technically a complet one bedroom apartment! The king sized bed was just the perfect firmness, and I woke every morning with no back pain, a big concern for road warriors. The "Cupboard" was always available for forgotten items or a quick snack, just charged to room on honor system, so no cash needed, everything from Ben&amp;Jerrys Chunky Monkey to snacks o toiletries, a mini store in house. The gym had several pieces of equipment, more than the standad treadmill and bike. There is also a laundry room with free washer and dryer, hanging area and large folding table, again a nice little perk. Unfortunately the negatives next. The 2 room suites have no AC in bedroom, just an exhaust fan (very loud) that pulls air from living room. This never gets bedroom to a wanted temp. The laundry room flooded while I was doing laundry, and not a drip, a full inch of water and running out into gym, a big mess. The parking is a bizarre set up. There are many spaces on the curb side of this shared area with a Comfort Suites. All of these spaces have notices that cars will be towed, as it is CS property. Confusing. There is one space next to a back door that had the hotel's van in it at all times, again reducing parking. If you get to this property after dark, be expected to park behind the building near a less than appealing bodega, not really well lit and unsavory characters walking around. There are 3 handicapped and 4 regular spaces near the front of the hotel, the rest are around the back, and most not near a door. The reserved spaces are across from entrance and well lit, but you get towed. Not a good set up. I requested several times not to get a paper, as I don't read the paper, and it was a waste. Every day I got a paper. The bathroom had nice fluffy towes and hand towels, but I couldn't find the face cloths. When questioned,  I was told they were on order. It is a major inconvenience to shower with a hand towel, as they are large and get very heavy when wet. Due to interactions with staff being so positive, and the wondderful upgrade, I would like to rate this place higher, but untill the above refrenced issues are resolved, average is the best I can do, although this is one of the nicer hotels I have stayed at in Dallas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r153194510-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -1971,9 +1794,6 @@
     <t>My rating is poor due to what would appear to be managerial issues. The room accommodations were nice, but upon arrival I noticed immediately that the bedspread appeared to have been sat on, the toilet seat was left up (as if a man had used it), there were no coffee supplies in the kitchen and the counter was not wiped. I arrived late at night and thought I could get coffee with the free breakfast in the morning. One problem, no free breakfast with room.  I said something to the girl at the desk upon leaving and she offered me some coffee from "The Cupboard," the food supply for guests to purchase items. She offered the coffee free and I thought "Yea, coffee."  Unfortunately the coffee machine had some strange mix of water/cream/maybe coffee which did not even smell like coffee. The front desk girl offered anything from the shelves and I took a granola bar.  She attempted to make a correction to the $100 charge for the room and ended up charging my card for $20 more dollars. She said the register wouldn't let her make the correction. I left, got breakfast at a local IHOP and attempted to contact the manager a day later. The manager did not return my phone call. Too much cost involved in staying at this hotel. I will continue to attempt to contact the manager, but time is money and if I have...My rating is poor due to what would appear to be managerial issues. The room accommodations were nice, but upon arrival I noticed immediately that the bedspread appeared to have been sat on, the toilet seat was left up (as if a man had used it), there were no coffee supplies in the kitchen and the counter was not wiped. I arrived late at night and thought I could get coffee with the free breakfast in the morning. One problem, no free breakfast with room.  I said something to the girl at the desk upon leaving and she offered me some coffee from "The Cupboard," the food supply for guests to purchase items. She offered the coffee free and I thought "Yea, coffee."  Unfortunately the coffee machine had some strange mix of water/cream/maybe coffee which did not even smell like coffee. The front desk girl offered anything from the shelves and I took a granola bar.  She attempted to make a correction to the $100 charge for the room and ended up charging my card for $20 more dollars. She said the register wouldn't let her make the correction. I left, got breakfast at a local IHOP and attempted to contact the manager a day later. The manager did not return my phone call. Too much cost involved in staying at this hotel. I will continue to attempt to contact the manager, but time is money and if I have to continue to invest into this experience it only makes it worse! Other comparable hotels in the area run $80-100 with coffee in the room and a free breakfast in the morning.More</t>
   </si>
   <si>
-    <t>DaddyYo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r144887583-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2001,9 +1821,6 @@
     <t>I recently stayed here on a quick trip to Plano. This was my first stay at the Candlewood Brand. The room was nice. Well laid out and spacious. Clean and comfortable. Location was a challenge as the traffic flow is not great, and it seems the traffic is always crazy, making very difficult to go anywhere but west or south. And even those can be a challenge.Not a lot of perks. No morning breakfast option, unless you fix it in your room. No daily housekeeping, so don't leave the pizza box in the room overnight.But for all of this you get a great price. If you can forego some of the basic you find in comparably equipped hotels, you'll be very pleased!More</t>
   </si>
   <si>
-    <t>electronicsguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r138114682-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2031,9 +1848,6 @@
     <t>I stay in many hotels each year and have stayed in this hotel once a few years ago. I believe it was a year old at that time. The property was nice and clean and the service was excellent. Now time has set in on what should still be a new property as far as age but has not been taken care of. The rooms were not what I would call clean. Details at this property have been over looked for too long. My stay was ok but during this day and age there are plenty of choices. I think that Hilton will get my business in Plano going forward.More</t>
   </si>
   <si>
-    <t>curtishardy09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r132766924-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2061,9 +1875,6 @@
     <t>We just spent two nights at the Candlewood in Plano.  It is an average Candlewood Suites.  Overall the stay was good.  The property is clean and in good repair.  The front desk staff was cordial and efficient.  Not out standing just average.  The exterior was clean as you would expect.  The dishes were somewhat clean but a little stained.  The bed sagged in the middle so you spent the night hugging the edges or laying on top of each other.  Candlewood has great towels and bath products, we like this.  Candlewood also has free laundry which means a lot to us.  This property has three washer and four dryers.  It also has a nice work out room.  We have grown to like average.  No surprises, just good.  The parking is a little tight but not a problem.More</t>
   </si>
   <si>
-    <t>marathonmomAlabama</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r130322360-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2088,9 +1899,6 @@
     <t>For the rates at this hotel you would think they could offer you some sort of free breakfast. You can purchase breakfast in the cupboard for a small fee. Other cheaper hotel chains most often include a continental breakfast but you can't even get "fresh" fruit here. Other than that the rooms are adequate. No pool here if you have a lot of time on your hands. Work out room could stand to be revamped. The guys at the front have all been really helpful though. More</t>
   </si>
   <si>
-    <t>MWR4114</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r123928834-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2118,9 +1926,6 @@
     <t>Be aware this are has had some crime issues! My rental was broken in to this was not the first incident in the last couple of months from what the staff said. The hotel does not have any cameras outside! They probably have close to two dozen on the inside.The hotel was ok but not great. The room I was given had something sticky on the linoleum in the kitchen are when I cheeked in. I made the desk aware of this the next am and was told they would have the floor re-cleaned, this did not happen until they came in to do my weekly service six days later.  I was at this hotel last May 2011 and the linoleum was shinny and looked like wood. This time even after they re-cleaned it was very dull, scratched up  and had what appeared to look like ground in dirt. The bed was comfortable and the linens were ok. The towels on the other had were warren out, they were frayed and rough. I had a room facing Jupiter drive on the end near George Bush Pkw, the room had a lot of outside noise all times of the day/night. It seams like the windows/out side walls do not have enough instillation. I never heard the rooms next to or above me.More</t>
   </si>
   <si>
-    <t>freenclearkc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r122767597-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2145,9 +1950,6 @@
     <t>This place is nice, clean, and a great value for the money. I loved that it had a full size kitchen (not that I really needed it either). The front desk staff was friendly. It was just a quick 1 night stay, so didn't get a chance to check out everything. Great location. That's really all I can say.More</t>
   </si>
   <si>
-    <t>TexasTravelerLover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r120698287-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2175,9 +1977,6 @@
     <t>I stayed there since it was right across the tollway from my office and I got a great corporate rate.  It was a nice, clean, no-frills place to stay.  It's an extended stay type of place, so it had a full kitchen (not that I needed it).  The downside to that was that I was coming back after a business dinner one night and it was obvious someone had used their kitchen to cook dinner.  The insulation in these types of buildings is not like an apartment complex, so the smell permeated the halls and was quite disturbing when in a hotel environment.  You also don't get daily linen/bed making service.  Not a big deal to me - i was only there 2 nights and didn't need the bed made and had enough towels for 2 days.They don't have a restaurant or a free continental breakfast, but they do have a "pantry" that you can visit that has drinks (soda, water, juice) and snacks that you can either charge to your room or pay cash.Not a bad place if you need a value priced place to stay.More</t>
   </si>
   <si>
-    <t>4familytravelers66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r120578608-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
   </si>
   <si>
@@ -2200,9 +1999,6 @@
   </si>
   <si>
     <t>Two Candlewood Suites in Plano...this is the one to choose. We accidentally went to the other one and were leery.  It was not nearly as nice and accommodating at the one in East Plano. Our room was quiet, comfortable and clean.  We were concerned to be on first floor due to noise, but there was none!  Great workout facility and nice little convenience store area to buy snacks and drinks.  Super selection of free dvds to watch for entertainment.  Nice, friendly staff as well. We will book this hotel again next time we are in the Plano area.More</t>
-  </si>
-  <si>
-    <t>Kate H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1457662-r120000140-Candlewood_Suites_Plano_East-Plano_Texas.html</t>
@@ -2731,528 +2527,488 @@
       <c r="A2" t="n">
         <v>37040</v>
       </c>
-      <c r="B2" t="n">
-        <v>17009</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37040</v>
       </c>
-      <c r="B3" t="n">
-        <v>124103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
         <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37040</v>
       </c>
-      <c r="B4" t="n">
-        <v>1719</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37040</v>
       </c>
-      <c r="B5" t="n">
-        <v>124104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37040</v>
       </c>
-      <c r="B6" t="n">
-        <v>15275</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37040</v>
       </c>
-      <c r="B7" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37040</v>
       </c>
-      <c r="B8" t="n">
-        <v>14701</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37040</v>
       </c>
-      <c r="B9" t="n">
-        <v>124105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3264,140 +3020,126 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37040</v>
       </c>
-      <c r="B10" t="n">
-        <v>17805</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37040</v>
       </c>
-      <c r="B11" t="n">
-        <v>124106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -3406,69 +3148,65 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37040</v>
       </c>
-      <c r="B12" t="n">
-        <v>124107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
-        <v>152</v>
-      </c>
-      <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -3477,62 +3215,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37040</v>
       </c>
-      <c r="B13" t="n">
-        <v>124108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="n">
         <v>3</v>
       </c>
@@ -3540,267 +3276,255 @@
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37040</v>
       </c>
-      <c r="B14" t="n">
-        <v>124109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37040</v>
       </c>
-      <c r="B15" t="n">
-        <v>15062</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37040</v>
       </c>
-      <c r="B16" t="n">
-        <v>124110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>185</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37040</v>
       </c>
-      <c r="B17" t="n">
-        <v>29578</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3812,57 +3536,57 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37040</v>
       </c>
-      <c r="B18" t="n">
-        <v>124111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>205</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -3873,51 +3597,47 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37040</v>
       </c>
-      <c r="B19" t="n">
-        <v>77210</v>
-      </c>
-      <c r="C19" t="s">
-        <v>214</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3934,339 +3654,309 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37040</v>
       </c>
-      <c r="B20" t="n">
-        <v>8015</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>226</v>
-      </c>
-      <c r="O20" t="s">
-        <v>75</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37040</v>
       </c>
-      <c r="B21" t="n">
-        <v>124112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>228</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37040</v>
       </c>
-      <c r="B22" t="n">
-        <v>124113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="s">
-        <v>201</v>
-      </c>
-      <c r="O22" t="s">
-        <v>233</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="X22" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37040</v>
       </c>
-      <c r="B23" t="n">
-        <v>124114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="X23" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="Y23" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37040</v>
       </c>
-      <c r="B24" t="n">
-        <v>44143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
@@ -4275,146 +3965,138 @@
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37040</v>
       </c>
-      <c r="B25" t="n">
-        <v>124115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="Y25" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37040</v>
       </c>
-      <c r="B26" t="n">
-        <v>124116</v>
-      </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -4423,620 +4105,586 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37040</v>
       </c>
-      <c r="B27" t="n">
-        <v>124117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37040</v>
       </c>
-      <c r="B28" t="n">
-        <v>124118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>289</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37040</v>
       </c>
-      <c r="B29" t="n">
-        <v>16908</v>
-      </c>
-      <c r="C29" t="s">
-        <v>299</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37040</v>
       </c>
-      <c r="B30" t="n">
-        <v>124119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37040</v>
       </c>
-      <c r="B31" t="n">
-        <v>29749</v>
-      </c>
-      <c r="C31" t="s">
-        <v>319</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="X31" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="Y31" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37040</v>
       </c>
-      <c r="B32" t="n">
-        <v>124120</v>
-      </c>
-      <c r="C32" t="s">
-        <v>328</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
         <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="X32" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="Y32" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37040</v>
       </c>
-      <c r="B33" t="n">
-        <v>6779</v>
-      </c>
-      <c r="C33" t="s">
-        <v>338</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>334</v>
-      </c>
-      <c r="O33" t="s">
-        <v>233</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="X33" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37040</v>
       </c>
-      <c r="B34" t="n">
-        <v>124121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>347</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="X34" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="Y34" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37040</v>
       </c>
-      <c r="B35" t="n">
-        <v>1644</v>
-      </c>
-      <c r="C35" t="s">
-        <v>357</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
       <c r="I35" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -5046,69 +4694,63 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37040</v>
       </c>
-      <c r="B36" t="n">
-        <v>98283</v>
-      </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
       <c r="I36" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="O36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -5117,67 +4759,65 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="X36" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37040</v>
       </c>
-      <c r="B37" t="n">
-        <v>304</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -5186,138 +4826,128 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37040</v>
       </c>
-      <c r="B38" t="n">
-        <v>124122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>378</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
       <c r="I38" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="X38" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="Y38" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37040</v>
       </c>
-      <c r="B39" t="n">
-        <v>124123</v>
-      </c>
-      <c r="C39" t="s">
-        <v>388</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
       <c r="I39" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="O39" t="s">
-        <v>75</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>3</v>
@@ -5326,625 +4956,589 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="X39" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="Y39" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37040</v>
       </c>
-      <c r="B40" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C40" t="s">
-        <v>397</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="X40" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="Y40" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37040</v>
       </c>
-      <c r="B41" t="n">
-        <v>6548</v>
-      </c>
-      <c r="C41" t="s">
-        <v>406</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
       <c r="I41" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="X41" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="Y41" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37040</v>
       </c>
-      <c r="B42" t="n">
-        <v>124124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>414</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
       <c r="I42" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="X42" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="Y42" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37040</v>
       </c>
-      <c r="B43" t="n">
-        <v>13412</v>
-      </c>
-      <c r="C43" t="s">
-        <v>423</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="J43" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="K43" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="O43" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="X43" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37040</v>
       </c>
-      <c r="B44" t="n">
-        <v>124125</v>
-      </c>
-      <c r="C44" t="s">
-        <v>433</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
       <c r="I44" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s">
-        <v>233</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="X44" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37040</v>
       </c>
-      <c r="B45" t="n">
-        <v>124126</v>
-      </c>
-      <c r="C45" t="s">
-        <v>442</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" t="s">
-        <v>48</v>
-      </c>
       <c r="I45" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="J45" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>448</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s">
-        <v>449</v>
+        <v>218</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="X45" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="Y45" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37040</v>
       </c>
-      <c r="B46" t="n">
-        <v>124127</v>
-      </c>
-      <c r="C46" t="s">
-        <v>453</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
       <c r="I46" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="J46" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="X46" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="Y46" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37040</v>
       </c>
-      <c r="B47" t="n">
-        <v>124128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>462</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
         <v>47</v>
       </c>
-      <c r="H47" t="s">
-        <v>48</v>
-      </c>
       <c r="I47" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="J47" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="L47" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="O47" t="s">
-        <v>233</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
       <c r="Q47" t="n">
         <v>4</v>
       </c>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="X47" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Y47" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37040</v>
       </c>
-      <c r="B48" t="n">
-        <v>124129</v>
-      </c>
-      <c r="C48" t="s">
-        <v>472</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
         <v>47</v>
       </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
       <c r="I48" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="J48" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" t="n">
+        <v>218</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
         <v>4</v>
       </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>4</v>
@@ -5953,269 +5547,255 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="X48" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="Y48" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37040</v>
       </c>
-      <c r="B49" t="n">
-        <v>4542</v>
-      </c>
-      <c r="C49" t="s">
-        <v>482</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
         <v>47</v>
       </c>
-      <c r="H49" t="s">
-        <v>48</v>
-      </c>
       <c r="I49" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
       </c>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="X49" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="Y49" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37040</v>
       </c>
-      <c r="B50" t="n">
-        <v>124130</v>
-      </c>
-      <c r="C50" t="s">
-        <v>492</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
         <v>47</v>
       </c>
-      <c r="H50" t="s">
-        <v>48</v>
-      </c>
       <c r="I50" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s">
-        <v>233</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
       <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="X50" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="Y50" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37040</v>
       </c>
-      <c r="B51" t="n">
-        <v>124131</v>
-      </c>
-      <c r="C51" t="s">
-        <v>502</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
         <v>47</v>
       </c>
-      <c r="H51" t="s">
-        <v>48</v>
-      </c>
       <c r="I51" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="K51" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="L51" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="O51" t="s">
-        <v>75</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="X51" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="Y51" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37040</v>
       </c>
-      <c r="B52" t="n">
-        <v>124132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>511</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
         <v>47</v>
       </c>
-      <c r="H52" t="s">
-        <v>48</v>
-      </c>
       <c r="I52" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>517</v>
+        <v>377</v>
       </c>
       <c r="O52" t="s">
-        <v>233</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
       <c r="Q52" t="n">
         <v>5</v>
       </c>
@@ -6229,67 +5809,63 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="X52" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="Y52" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37040</v>
       </c>
-      <c r="B53" t="n">
-        <v>124133</v>
-      </c>
-      <c r="C53" t="s">
-        <v>521</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
         <v>47</v>
       </c>
-      <c r="H53" t="s">
-        <v>48</v>
-      </c>
       <c r="I53" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="J53" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="K53" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -6298,287 +5874,265 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="X53" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="Y53" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37040</v>
       </c>
-      <c r="B54" t="n">
-        <v>60008</v>
-      </c>
-      <c r="C54" t="s">
-        <v>530</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
         <v>47</v>
       </c>
-      <c r="H54" t="s">
-        <v>48</v>
-      </c>
       <c r="I54" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="J54" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="K54" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="L54" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="O54" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
         <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="X54" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="Y54" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37040</v>
       </c>
-      <c r="B55" t="n">
-        <v>124134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>539</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
         <v>47</v>
       </c>
-      <c r="H55" t="s">
-        <v>48</v>
-      </c>
       <c r="I55" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="J55" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="K55" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="L55" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="O55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="P55" t="s"/>
-      <c r="Q55" t="n">
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
         <v>4</v>
       </c>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="X55" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="Y55" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37040</v>
       </c>
-      <c r="B56" t="n">
-        <v>124135</v>
-      </c>
-      <c r="C56" t="s">
-        <v>548</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
       <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
         <v>47</v>
       </c>
-      <c r="H56" t="s">
-        <v>48</v>
-      </c>
       <c r="I56" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="J56" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="K56" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="L56" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>554</v>
+        <v>377</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
         <v>4</v>
       </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="X56" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="Y56" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37040</v>
       </c>
-      <c r="B57" t="n">
-        <v>124136</v>
-      </c>
-      <c r="C57" t="s">
-        <v>558</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
         <v>47</v>
       </c>
-      <c r="H57" t="s">
-        <v>48</v>
-      </c>
       <c r="I57" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="J57" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="O57" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -6588,60 +6142,56 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>564</v>
+        <v>505</v>
       </c>
       <c r="X57" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="Y57" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37040</v>
       </c>
-      <c r="B58" t="n">
-        <v>124137</v>
-      </c>
-      <c r="C58" t="s">
-        <v>567</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
       <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
         <v>47</v>
       </c>
-      <c r="H58" t="s">
-        <v>48</v>
-      </c>
       <c r="I58" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="J58" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K58" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="L58" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="O58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6663,60 +6213,56 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="X58" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="Y58" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37040</v>
       </c>
-      <c r="B59" t="n">
-        <v>3496</v>
-      </c>
-      <c r="C59" t="s">
-        <v>574</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
         <v>47</v>
       </c>
-      <c r="H59" t="s">
-        <v>48</v>
-      </c>
       <c r="I59" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="J59" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="K59" t="s">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>580</v>
+        <v>504</v>
       </c>
       <c r="O59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6738,60 +6284,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
       <c r="X59" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="Y59" t="s">
-        <v>583</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37040</v>
       </c>
-      <c r="B60" t="n">
-        <v>6384</v>
-      </c>
-      <c r="C60" t="s">
-        <v>584</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>585</v>
+        <v>522</v>
       </c>
       <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
         <v>47</v>
       </c>
-      <c r="H60" t="s">
-        <v>48</v>
-      </c>
       <c r="I60" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
       <c r="J60" t="s">
-        <v>587</v>
+        <v>524</v>
       </c>
       <c r="K60" t="s">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="L60" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>590</v>
+        <v>527</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6813,60 +6355,56 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>591</v>
+        <v>528</v>
       </c>
       <c r="X60" t="s">
-        <v>592</v>
+        <v>529</v>
       </c>
       <c r="Y60" t="s">
-        <v>593</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37040</v>
       </c>
-      <c r="B61" t="n">
-        <v>124138</v>
-      </c>
-      <c r="C61" t="s">
-        <v>594</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
       <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
         <v>47</v>
       </c>
-      <c r="H61" t="s">
-        <v>48</v>
-      </c>
       <c r="I61" t="s">
-        <v>596</v>
+        <v>532</v>
       </c>
       <c r="J61" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
       <c r="K61" t="s">
-        <v>598</v>
+        <v>534</v>
       </c>
       <c r="L61" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="O61" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6875,85 +6413,81 @@
         <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="X61" t="s">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="Y61" t="s">
-        <v>603</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37040</v>
       </c>
-      <c r="B62" t="n">
-        <v>124139</v>
-      </c>
-      <c r="C62" t="s">
-        <v>604</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
         <v>47</v>
       </c>
-      <c r="H62" t="s">
-        <v>48</v>
-      </c>
       <c r="I62" t="s">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="J62" t="s">
-        <v>607</v>
+        <v>542</v>
       </c>
       <c r="K62" t="s">
-        <v>608</v>
+        <v>543</v>
       </c>
       <c r="L62" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="O62" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6963,287 +6497,271 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="X62" t="s">
-        <v>612</v>
+        <v>547</v>
       </c>
       <c r="Y62" t="s">
-        <v>613</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37040</v>
       </c>
-      <c r="B63" t="n">
-        <v>124140</v>
-      </c>
-      <c r="C63" t="s">
-        <v>614</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
         <v>47</v>
       </c>
-      <c r="H63" t="s">
-        <v>48</v>
-      </c>
       <c r="I63" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="J63" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
       <c r="K63" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
-      </c>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
       <c r="X63" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="Y63" t="s">
-        <v>623</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37040</v>
       </c>
-      <c r="B64" t="n">
-        <v>70965</v>
-      </c>
-      <c r="C64" t="s">
-        <v>624</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>625</v>
+        <v>558</v>
       </c>
       <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
         <v>47</v>
       </c>
-      <c r="H64" t="s">
-        <v>48</v>
-      </c>
       <c r="I64" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
       <c r="J64" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
       <c r="K64" t="s">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="L64" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>630</v>
+        <v>563</v>
       </c>
       <c r="O64" t="s">
-        <v>75</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>631</v>
+        <v>564</v>
       </c>
       <c r="X64" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
       <c r="Y64" t="s">
-        <v>633</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37040</v>
       </c>
-      <c r="B65" t="n">
-        <v>124141</v>
-      </c>
-      <c r="C65" t="s">
-        <v>634</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>635</v>
+        <v>567</v>
       </c>
       <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
         <v>47</v>
       </c>
-      <c r="H65" t="s">
-        <v>48</v>
-      </c>
       <c r="I65" t="s">
-        <v>636</v>
+        <v>568</v>
       </c>
       <c r="J65" t="s">
-        <v>637</v>
+        <v>569</v>
       </c>
       <c r="K65" t="s">
-        <v>638</v>
+        <v>570</v>
       </c>
       <c r="L65" t="s">
-        <v>639</v>
+        <v>571</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>620</v>
+        <v>572</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R65" t="n">
         <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="X65" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
       <c r="Y65" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37040</v>
       </c>
-      <c r="B66" t="n">
-        <v>124142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>643</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
         <v>47</v>
       </c>
-      <c r="H66" t="s">
-        <v>48</v>
-      </c>
       <c r="I66" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
       <c r="J66" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
       <c r="K66" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
       <c r="L66" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
       <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>563</v>
+      </c>
+      <c r="O66" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
         <v>3</v>
-      </c>
-      <c r="N66" t="s">
-        <v>649</v>
-      </c>
-      <c r="O66" t="s">
-        <v>75</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
       </c>
       <c r="R66" t="n">
         <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
@@ -7253,72 +6771,68 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>650</v>
+        <v>581</v>
       </c>
       <c r="X66" t="s">
-        <v>651</v>
+        <v>582</v>
       </c>
       <c r="Y66" t="s">
-        <v>652</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37040</v>
       </c>
-      <c r="B67" t="n">
-        <v>124143</v>
-      </c>
-      <c r="C67" t="s">
-        <v>653</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
         <v>47</v>
       </c>
-      <c r="H67" t="s">
-        <v>48</v>
-      </c>
       <c r="I67" t="s">
-        <v>655</v>
+        <v>585</v>
       </c>
       <c r="J67" t="s">
-        <v>656</v>
+        <v>586</v>
       </c>
       <c r="K67" t="s">
-        <v>657</v>
+        <v>587</v>
       </c>
       <c r="L67" t="s">
-        <v>658</v>
+        <v>588</v>
       </c>
       <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>589</v>
+      </c>
+      <c r="O67" t="s">
+        <v>77</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
         <v>2</v>
       </c>
-      <c r="N67" t="s">
-        <v>659</v>
-      </c>
-      <c r="O67" t="s">
-        <v>75</v>
-      </c>
-      <c r="P67" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>2</v>
-      </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>4</v>
-      </c>
-      <c r="S67" t="n">
-        <v>2</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
@@ -7328,72 +6842,68 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="X67" t="s">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="Y67" t="s">
-        <v>662</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37040</v>
       </c>
-      <c r="B68" t="n">
-        <v>124144</v>
-      </c>
-      <c r="C68" t="s">
-        <v>663</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
         <v>47</v>
       </c>
-      <c r="H68" t="s">
-        <v>48</v>
-      </c>
       <c r="I68" t="s">
-        <v>665</v>
+        <v>594</v>
       </c>
       <c r="J68" t="s">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="K68" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="L68" t="s">
-        <v>668</v>
+        <v>597</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>669</v>
+        <v>598</v>
       </c>
       <c r="O68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
         <v>4</v>
       </c>
-      <c r="Q68" t="n">
-        <v>3</v>
-      </c>
-      <c r="R68" t="n">
-        <v>3</v>
-      </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
@@ -7403,59 +6913,59 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="X68" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="Y68" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37040</v>
       </c>
-      <c r="B69" t="n">
-        <v>124145</v>
-      </c>
-      <c r="C69" t="s">
-        <v>673</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>674</v>
+        <v>602</v>
       </c>
       <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
         <v>47</v>
       </c>
-      <c r="H69" t="s">
-        <v>48</v>
-      </c>
       <c r="I69" t="s">
-        <v>675</v>
+        <v>603</v>
       </c>
       <c r="J69" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="K69" t="s">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="L69" t="s">
-        <v>678</v>
+        <v>606</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
+      <c r="N69" t="s">
+        <v>607</v>
+      </c>
+      <c r="O69" t="s">
+        <v>77</v>
+      </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="n">
         <v>3</v>
@@ -7464,71 +6974,63 @@
         <v>3</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>679</v>
+        <v>608</v>
       </c>
       <c r="X69" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
       <c r="Y69" t="s">
-        <v>681</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37040</v>
       </c>
-      <c r="B70" t="n">
-        <v>124146</v>
-      </c>
-      <c r="C70" t="s">
-        <v>682</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>683</v>
+        <v>611</v>
       </c>
       <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
         <v>47</v>
       </c>
-      <c r="H70" t="s">
-        <v>48</v>
-      </c>
       <c r="I70" t="s">
-        <v>684</v>
+        <v>612</v>
       </c>
       <c r="J70" t="s">
-        <v>685</v>
+        <v>613</v>
       </c>
       <c r="K70" t="s">
-        <v>686</v>
+        <v>614</v>
       </c>
       <c r="L70" t="s">
-        <v>687</v>
+        <v>615</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
-      <c r="N70" t="s">
-        <v>688</v>
-      </c>
-      <c r="O70" t="s">
-        <v>75</v>
-      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
       <c r="P70" t="n">
         <v>3</v>
       </c>
@@ -7536,157 +7038,149 @@
         <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>689</v>
+        <v>616</v>
       </c>
       <c r="X70" t="s">
-        <v>690</v>
+        <v>617</v>
       </c>
       <c r="Y70" t="s">
-        <v>691</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37040</v>
       </c>
-      <c r="B71" t="n">
-        <v>124147</v>
-      </c>
-      <c r="C71" t="s">
-        <v>692</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
         <v>47</v>
       </c>
-      <c r="H71" t="s">
-        <v>48</v>
-      </c>
       <c r="I71" t="s">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="J71" t="s">
-        <v>695</v>
+        <v>621</v>
       </c>
       <c r="K71" t="s">
-        <v>696</v>
+        <v>622</v>
       </c>
       <c r="L71" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>688</v>
+        <v>624</v>
       </c>
       <c r="O71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
       <c r="X71" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="Y71" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37040</v>
       </c>
-      <c r="B72" t="n">
-        <v>124148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>701</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
       <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
         <v>47</v>
       </c>
-      <c r="H72" t="s">
-        <v>48</v>
-      </c>
       <c r="I72" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="J72" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
       <c r="K72" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="L72" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>707</v>
+        <v>624</v>
       </c>
       <c r="O72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
         <v>4</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
         <v>4</v>
@@ -7699,140 +7193,136 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>708</v>
+        <v>633</v>
       </c>
       <c r="X72" t="s">
-        <v>709</v>
+        <v>634</v>
       </c>
       <c r="Y72" t="s">
-        <v>710</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37040</v>
       </c>
-      <c r="B73" t="n">
-        <v>124149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>711</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>712</v>
+        <v>636</v>
       </c>
       <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
         <v>47</v>
       </c>
-      <c r="H73" t="s">
-        <v>48</v>
-      </c>
       <c r="I73" t="s">
-        <v>713</v>
+        <v>637</v>
       </c>
       <c r="J73" t="s">
-        <v>714</v>
+        <v>638</v>
       </c>
       <c r="K73" t="s">
-        <v>715</v>
+        <v>639</v>
       </c>
       <c r="L73" t="s">
-        <v>716</v>
+        <v>640</v>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>707</v>
+        <v>641</v>
       </c>
       <c r="O73" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>717</v>
+        <v>642</v>
       </c>
       <c r="X73" t="s">
-        <v>718</v>
+        <v>643</v>
       </c>
       <c r="Y73" t="s">
-        <v>719</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37040</v>
       </c>
-      <c r="B74" t="n">
-        <v>3373</v>
-      </c>
-      <c r="C74" t="s">
-        <v>720</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>721</v>
+        <v>645</v>
       </c>
       <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
         <v>47</v>
       </c>
-      <c r="H74" t="s">
-        <v>48</v>
-      </c>
       <c r="I74" t="s">
-        <v>722</v>
+        <v>646</v>
       </c>
       <c r="J74" t="s">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="K74" t="s">
-        <v>724</v>
+        <v>648</v>
       </c>
       <c r="L74" t="s">
-        <v>725</v>
+        <v>649</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
-      </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>641</v>
+      </c>
+      <c r="O74" t="s">
+        <v>58</v>
+      </c>
       <c r="P74" t="n">
         <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
         <v>5</v>
@@ -7845,13 +7335,80 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>726</v>
+        <v>650</v>
       </c>
       <c r="X74" t="s">
-        <v>727</v>
+        <v>651</v>
       </c>
       <c r="Y74" t="s">
-        <v>728</v>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37040</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>653</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>654</v>
+      </c>
+      <c r="J75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K75" t="s">
+        <v>656</v>
+      </c>
+      <c r="L75" t="s">
+        <v>657</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>658</v>
+      </c>
+      <c r="X75" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
